--- a/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
+++ b/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3755" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="2133">
   <si>
     <t>PI|GM</t>
   </si>
@@ -5985,6 +5985,18 @@
     <t>Ash</t>
   </si>
   <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>synth</t>
+  </si>
+  <si>
+    <t>scape</t>
+  </si>
+  <si>
+    <t>Turbine (Phase)</t>
+  </si>
+  <si>
     <t>Coral</t>
   </si>
   <si>
@@ -6006,6 +6018,15 @@
     <t>Caramel</t>
   </si>
   <si>
+    <t>gloss</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>Tackle (Thirst)</t>
+  </si>
+  <si>
     <t>Dose</t>
   </si>
   <si>
@@ -6024,6 +6045,18 @@
     <t>School</t>
   </si>
   <si>
+    <t>Definite</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>Jeep (Laser)</t>
+  </si>
+  <si>
     <t>Ton</t>
   </si>
   <si>
@@ -6042,6 +6075,18 @@
     <t>Hospital</t>
   </si>
   <si>
+    <t>Raisin</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>Albino (Mono)</t>
+  </si>
+  <si>
     <t>Visa</t>
   </si>
   <si>
@@ -6060,6 +6105,18 @@
     <t>Office</t>
   </si>
   <si>
+    <t>Centigrade</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Sponge (Dollar)</t>
+  </si>
+  <si>
     <t>Lazy</t>
   </si>
   <si>
@@ -6081,6 +6138,15 @@
     <t>Balloon</t>
   </si>
   <si>
+    <t>shiver</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>Authority (Cascade)</t>
+  </si>
+  <si>
     <t>Nap</t>
   </si>
   <si>
@@ -6102,6 +6168,15 @@
     <t>Chocolate</t>
   </si>
   <si>
+    <t>luggage</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>Astronomy (Irish)</t>
+  </si>
+  <si>
     <t>Fat</t>
   </si>
   <si>
@@ -6120,6 +6195,18 @@
     <t>Stadium</t>
   </si>
   <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>Wrench (Gravel)</t>
+  </si>
+  <si>
     <t>Wet</t>
   </si>
   <si>
@@ -6138,6 +6225,18 @@
     <t>River</t>
   </si>
   <si>
+    <t>Gum</t>
+  </si>
+  <si>
+    <t>yolk</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>Adopt (Blanket)</t>
+  </si>
+  <si>
     <t>Pulp</t>
   </si>
   <si>
@@ -6156,6 +6255,18 @@
     <t>Pavilion</t>
   </si>
   <si>
+    <t>Marry</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>scrub</t>
+  </si>
+  <si>
+    <t>Twig (Slim)</t>
+  </si>
+  <si>
     <t>Smog</t>
   </si>
   <si>
@@ -6177,6 +6288,15 @@
     <t>Alphabet</t>
   </si>
   <si>
+    <t>stitch</t>
+  </si>
+  <si>
+    <t>needle</t>
+  </si>
+  <si>
+    <t>Nest (Whistle)</t>
+  </si>
+  <si>
     <t>Browse</t>
   </si>
   <si>
@@ -6193,6 +6313,18 @@
   </si>
   <si>
     <t>Mega</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>Flap (Tattoo)</t>
   </si>
   <si>
     <t>Pact</t>
@@ -27611,12 +27743,20 @@
       <c r="P3" s="76">
         <v>32.0</v>
       </c>
-      <c r="Q3" s="146"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
+      <c r="Q3" s="146" t="s">
+        <v>1988</v>
+      </c>
+      <c r="R3" s="147" t="s">
+        <v>1989</v>
+      </c>
+      <c r="S3" s="148" t="s">
+        <v>1990</v>
+      </c>
+      <c r="T3" s="149" t="s">
+        <v>1991</v>
+      </c>
       <c r="U3" s="150" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="V3" s="104"/>
       <c r="W3" s="78" t="s">
@@ -27635,19 +27775,19 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="186" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="F4" s="157" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="G4" s="158" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="H4" s="136" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="I4" s="159" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="J4" s="104"/>
       <c r="K4" s="78" t="s">
@@ -27663,13 +27803,19 @@
         <v>1.0</v>
       </c>
       <c r="Q4" s="186" t="s">
-        <v>1994</v>
-      </c>
-      <c r="R4" s="157"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="136"/>
+        <v>1998</v>
+      </c>
+      <c r="R4" s="157" t="s">
+        <v>1999</v>
+      </c>
+      <c r="S4" s="158" t="s">
+        <v>2000</v>
+      </c>
+      <c r="T4" s="136" t="s">
+        <v>2001</v>
+      </c>
       <c r="U4" s="159" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="V4" s="104"/>
       <c r="W4" s="78" t="s">
@@ -27686,19 +27832,19 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="F5" s="117" t="s">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="G5" s="138" t="s">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="H5" s="137" t="s">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="I5" s="165" t="s">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="J5" s="104"/>
       <c r="K5" s="78" t="s">
@@ -27715,12 +27861,20 @@
       <c r="P5" s="58">
         <v>2.0</v>
       </c>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="137"/>
+      <c r="Q5" s="139" t="s">
+        <v>2008</v>
+      </c>
+      <c r="R5" s="117" t="s">
+        <v>2009</v>
+      </c>
+      <c r="S5" s="138" t="s">
+        <v>2010</v>
+      </c>
+      <c r="T5" s="137" t="s">
+        <v>2011</v>
+      </c>
       <c r="U5" s="165" t="s">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="V5" s="104"/>
       <c r="W5" s="78" t="s">
@@ -27737,19 +27891,19 @@
         <v>3.0</v>
       </c>
       <c r="E6" s="139" t="s">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="G6" s="138" t="s">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="H6" s="137" t="s">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="I6" s="165" t="s">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="J6" s="104"/>
       <c r="K6" s="78" t="s">
@@ -27764,12 +27918,20 @@
       <c r="P6" s="58">
         <v>3.0</v>
       </c>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="137"/>
+      <c r="Q6" s="139" t="s">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="117" t="s">
+        <v>2019</v>
+      </c>
+      <c r="S6" s="138" t="s">
+        <v>2020</v>
+      </c>
+      <c r="T6" s="137" t="s">
+        <v>2021</v>
+      </c>
       <c r="U6" s="165" t="s">
-        <v>2007</v>
+        <v>2022</v>
       </c>
       <c r="V6" s="104"/>
       <c r="W6" s="78" t="s">
@@ -27786,19 +27948,19 @@
         <v>4.0</v>
       </c>
       <c r="E7" s="139" t="s">
-        <v>2008</v>
+        <v>2023</v>
       </c>
       <c r="F7" s="117" t="s">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="G7" s="138" t="s">
-        <v>2010</v>
+        <v>2025</v>
       </c>
       <c r="H7" s="137" t="s">
-        <v>2011</v>
+        <v>2026</v>
       </c>
       <c r="I7" s="165" t="s">
-        <v>2012</v>
+        <v>2027</v>
       </c>
       <c r="J7" s="104"/>
       <c r="K7" s="78" t="s">
@@ -27813,12 +27975,20 @@
       <c r="P7" s="58">
         <v>4.0</v>
       </c>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="137"/>
+      <c r="Q7" s="139" t="s">
+        <v>2028</v>
+      </c>
+      <c r="R7" s="117" t="s">
+        <v>2029</v>
+      </c>
+      <c r="S7" s="138" t="s">
+        <v>2030</v>
+      </c>
+      <c r="T7" s="137" t="s">
+        <v>2031</v>
+      </c>
       <c r="U7" s="165" t="s">
-        <v>2013</v>
+        <v>2032</v>
       </c>
       <c r="V7" s="104"/>
       <c r="W7" s="78" t="s">
@@ -27835,19 +28005,19 @@
         <v>5.0</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>2014</v>
+        <v>2033</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>2015</v>
+        <v>2034</v>
       </c>
       <c r="G8" s="138" t="s">
-        <v>2016</v>
+        <v>2035</v>
       </c>
       <c r="H8" s="137" t="s">
-        <v>2017</v>
+        <v>2036</v>
       </c>
       <c r="I8" s="165" t="s">
-        <v>2018</v>
+        <v>2037</v>
       </c>
       <c r="J8" s="104"/>
       <c r="K8" s="78" t="s">
@@ -27863,13 +28033,19 @@
         <v>5.0</v>
       </c>
       <c r="Q8" s="139" t="s">
-        <v>2019</v>
-      </c>
-      <c r="R8" s="117"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="137"/>
+        <v>2038</v>
+      </c>
+      <c r="R8" s="117" t="s">
+        <v>2039</v>
+      </c>
+      <c r="S8" s="138" t="s">
+        <v>2040</v>
+      </c>
+      <c r="T8" s="137" t="s">
+        <v>2041</v>
+      </c>
       <c r="U8" s="165" t="s">
-        <v>2020</v>
+        <v>2042</v>
       </c>
       <c r="V8" s="104"/>
       <c r="W8" s="78" t="s">
@@ -27886,19 +28062,19 @@
         <v>6.0</v>
       </c>
       <c r="E9" s="139" t="s">
-        <v>2021</v>
+        <v>2043</v>
       </c>
       <c r="F9" s="117" t="s">
-        <v>2022</v>
+        <v>2044</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>2023</v>
+        <v>2045</v>
       </c>
       <c r="H9" s="137" t="s">
-        <v>2024</v>
+        <v>2046</v>
       </c>
       <c r="I9" s="165" t="s">
-        <v>2025</v>
+        <v>2047</v>
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="78" t="s">
@@ -27914,13 +28090,19 @@
         <v>6.0</v>
       </c>
       <c r="Q9" s="139" t="s">
-        <v>2026</v>
-      </c>
-      <c r="R9" s="117"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="137"/>
+        <v>2048</v>
+      </c>
+      <c r="R9" s="117" t="s">
+        <v>2049</v>
+      </c>
+      <c r="S9" s="138" t="s">
+        <v>2050</v>
+      </c>
+      <c r="T9" s="137" t="s">
+        <v>2051</v>
+      </c>
       <c r="U9" s="165" t="s">
-        <v>2027</v>
+        <v>2052</v>
       </c>
       <c r="V9" s="104"/>
       <c r="W9" s="78" t="s">
@@ -27937,19 +28119,19 @@
         <v>7.0</v>
       </c>
       <c r="E10" s="139" t="s">
-        <v>2028</v>
+        <v>2053</v>
       </c>
       <c r="F10" s="117" t="s">
-        <v>2029</v>
+        <v>2054</v>
       </c>
       <c r="G10" s="138" t="s">
-        <v>2030</v>
+        <v>2055</v>
       </c>
       <c r="H10" s="137" t="s">
-        <v>2031</v>
+        <v>2056</v>
       </c>
       <c r="I10" s="165" t="s">
-        <v>2032</v>
+        <v>2057</v>
       </c>
       <c r="J10" s="104"/>
       <c r="K10" s="78" t="s">
@@ -27964,12 +28146,20 @@
       <c r="P10" s="58">
         <v>7.0</v>
       </c>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="137"/>
+      <c r="Q10" s="139" t="s">
+        <v>2058</v>
+      </c>
+      <c r="R10" s="117" t="s">
+        <v>2059</v>
+      </c>
+      <c r="S10" s="138" t="s">
+        <v>2060</v>
+      </c>
+      <c r="T10" s="137" t="s">
+        <v>2061</v>
+      </c>
       <c r="U10" s="165" t="s">
-        <v>2033</v>
+        <v>2062</v>
       </c>
       <c r="V10" s="104"/>
       <c r="W10" s="78" t="s">
@@ -27986,19 +28176,19 @@
         <v>8.0</v>
       </c>
       <c r="E11" s="139" t="s">
-        <v>2034</v>
+        <v>2063</v>
       </c>
       <c r="F11" s="117" t="s">
-        <v>2035</v>
+        <v>2064</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>2036</v>
+        <v>2065</v>
       </c>
       <c r="H11" s="137" t="s">
-        <v>2037</v>
+        <v>2066</v>
       </c>
       <c r="I11" s="165" t="s">
-        <v>2038</v>
+        <v>2067</v>
       </c>
       <c r="J11" s="104"/>
       <c r="K11" s="78" t="s">
@@ -28013,12 +28203,20 @@
       <c r="P11" s="58">
         <v>8.0</v>
       </c>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="137"/>
+      <c r="Q11" s="139" t="s">
+        <v>2068</v>
+      </c>
+      <c r="R11" s="117" t="s">
+        <v>2069</v>
+      </c>
+      <c r="S11" s="138" t="s">
+        <v>2070</v>
+      </c>
+      <c r="T11" s="137" t="s">
+        <v>2071</v>
+      </c>
       <c r="U11" s="165" t="s">
-        <v>2039</v>
+        <v>2072</v>
       </c>
       <c r="V11" s="104"/>
       <c r="W11" s="78" t="s">
@@ -28035,19 +28233,19 @@
         <v>9.0</v>
       </c>
       <c r="E12" s="139" t="s">
-        <v>2040</v>
+        <v>2073</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>2041</v>
+        <v>2074</v>
       </c>
       <c r="G12" s="138" t="s">
-        <v>2042</v>
+        <v>2075</v>
       </c>
       <c r="H12" s="137" t="s">
-        <v>2043</v>
+        <v>2076</v>
       </c>
       <c r="I12" s="165" t="s">
-        <v>2044</v>
+        <v>2077</v>
       </c>
       <c r="J12" s="104"/>
       <c r="K12" s="78" t="s">
@@ -28062,12 +28260,20 @@
       <c r="P12" s="58">
         <v>9.0</v>
       </c>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="137"/>
+      <c r="Q12" s="139" t="s">
+        <v>2078</v>
+      </c>
+      <c r="R12" s="117" t="s">
+        <v>2079</v>
+      </c>
+      <c r="S12" s="138" t="s">
+        <v>2080</v>
+      </c>
+      <c r="T12" s="137" t="s">
+        <v>2081</v>
+      </c>
       <c r="U12" s="165" t="s">
-        <v>2045</v>
+        <v>2082</v>
       </c>
       <c r="V12" s="104"/>
       <c r="W12" s="78" t="s">
@@ -28084,19 +28290,19 @@
         <v>10.0</v>
       </c>
       <c r="E13" s="173" t="s">
-        <v>2046</v>
+        <v>2083</v>
       </c>
       <c r="F13" s="174" t="s">
-        <v>2047</v>
+        <v>2084</v>
       </c>
       <c r="G13" s="175" t="s">
-        <v>2048</v>
+        <v>2085</v>
       </c>
       <c r="H13" s="122" t="s">
-        <v>2049</v>
+        <v>2086</v>
       </c>
       <c r="I13" s="125" t="s">
-        <v>2050</v>
+        <v>2087</v>
       </c>
       <c r="J13" s="104"/>
       <c r="K13" s="78" t="s">
@@ -28112,13 +28318,19 @@
         <v>10.0</v>
       </c>
       <c r="Q13" s="173" t="s">
-        <v>2051</v>
-      </c>
-      <c r="R13" s="174"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="122"/>
+        <v>2088</v>
+      </c>
+      <c r="R13" s="174" t="s">
+        <v>2089</v>
+      </c>
+      <c r="S13" s="175" t="s">
+        <v>2090</v>
+      </c>
+      <c r="T13" s="122" t="s">
+        <v>2091</v>
+      </c>
       <c r="U13" s="125" t="s">
-        <v>2052</v>
+        <v>2092</v>
       </c>
       <c r="V13" s="104"/>
       <c r="W13" s="78" t="s">
@@ -28137,19 +28349,19 @@
         <v>38</v>
       </c>
       <c r="E14" s="181" t="s">
-        <v>2053</v>
+        <v>2093</v>
       </c>
       <c r="F14" s="182" t="s">
-        <v>2054</v>
+        <v>2094</v>
       </c>
       <c r="G14" s="183" t="s">
-        <v>2055</v>
+        <v>2095</v>
       </c>
       <c r="H14" s="184" t="s">
-        <v>2056</v>
+        <v>2096</v>
       </c>
       <c r="I14" s="185" t="s">
-        <v>2057</v>
+        <v>2097</v>
       </c>
       <c r="J14" s="104"/>
       <c r="K14" s="85" t="s">
@@ -28166,12 +28378,20 @@
       <c r="P14" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
-      <c r="S14" s="183"/>
-      <c r="T14" s="184"/>
+      <c r="Q14" s="181" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R14" s="182" t="s">
+        <v>2099</v>
+      </c>
+      <c r="S14" s="183" t="s">
+        <v>2100</v>
+      </c>
+      <c r="T14" s="184" t="s">
+        <v>2101</v>
+      </c>
       <c r="U14" s="185" t="s">
-        <v>2058</v>
+        <v>2102</v>
       </c>
       <c r="V14" s="104"/>
       <c r="W14" s="85" t="s">
@@ -30958,7 +31178,7 @@
       </c>
       <c r="D15" s="193"/>
       <c r="H15" s="196" t="s">
-        <v>2059</v>
+        <v>2103</v>
       </c>
       <c r="I15" s="197"/>
       <c r="J15" s="197"/>
@@ -30990,7 +31210,7 @@
       </c>
       <c r="D16" s="193"/>
       <c r="H16" s="199" t="s">
-        <v>2060</v>
+        <v>2104</v>
       </c>
       <c r="I16" s="197"/>
       <c r="J16" s="197"/>
@@ -31020,7 +31240,7 @@
       </c>
       <c r="D17" s="193"/>
       <c r="H17" s="200" t="s">
-        <v>2061</v>
+        <v>2105</v>
       </c>
       <c r="I17" s="197"/>
       <c r="J17" s="197"/>
@@ -31328,7 +31548,7 @@
     <row r="27">
       <c r="A27" s="190"/>
       <c r="B27" s="194" t="s">
-        <v>2062</v>
+        <v>2106</v>
       </c>
       <c r="C27" s="195">
         <v>6.0</v>
@@ -31393,28 +31613,28 @@
     <row r="29" ht="11.25" customHeight="1"/>
     <row r="30">
       <c r="B30" s="203" t="s">
-        <v>2063</v>
+        <v>2107</v>
       </c>
       <c r="C30" s="204" t="s">
-        <v>2064</v>
+        <v>2108</v>
       </c>
       <c r="D30" s="205"/>
       <c r="E30" s="205"/>
       <c r="F30" s="206" t="s">
-        <v>2065</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="207" t="s">
-        <v>2066</v>
+        <v>2110</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>2067</v>
+        <v>2111</v>
       </c>
       <c r="D31" s="209"/>
       <c r="E31" s="209"/>
       <c r="F31" s="210" t="s">
-        <v>2065</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="37">
@@ -31443,7 +31663,7 @@
       <c r="B38" s="214"/>
       <c r="C38" s="1"/>
       <c r="D38" s="215" t="s">
-        <v>2068</v>
+        <v>2112</v>
       </c>
       <c r="U38" s="216"/>
     </row>
@@ -31453,10 +31673,10 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="215" t="s">
-        <v>2069</v>
+        <v>2113</v>
       </c>
       <c r="S39" s="218" t="s">
-        <v>2070</v>
+        <v>2114</v>
       </c>
       <c r="T39" s="219">
         <v>33.0</v>
@@ -31469,10 +31689,10 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="215" t="s">
-        <v>2071</v>
+        <v>2115</v>
       </c>
       <c r="S40" s="218" t="s">
-        <v>2072</v>
+        <v>2116</v>
       </c>
       <c r="T40" s="219">
         <v>65.0</v>
@@ -31485,10 +31705,10 @@
         <v>3.0</v>
       </c>
       <c r="D41" s="215" t="s">
-        <v>2073</v>
+        <v>2117</v>
       </c>
       <c r="S41" s="218" t="s">
-        <v>2074</v>
+        <v>2118</v>
       </c>
       <c r="T41" s="219">
         <v>43.0</v>
@@ -31501,10 +31721,10 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>2075</v>
+        <v>2119</v>
       </c>
       <c r="S42" s="218" t="s">
-        <v>2076</v>
+        <v>2120</v>
       </c>
       <c r="T42" s="219">
         <v>41.0</v>
@@ -31517,10 +31737,10 @@
         <v>5.0</v>
       </c>
       <c r="D43" s="215" t="s">
-        <v>2077</v>
+        <v>2121</v>
       </c>
       <c r="S43" s="218" t="s">
-        <v>2078</v>
+        <v>2122</v>
       </c>
       <c r="T43" s="219">
         <v>50.0</v>
@@ -31533,10 +31753,10 @@
         <v>6.0</v>
       </c>
       <c r="D44" s="215" t="s">
-        <v>2079</v>
+        <v>2123</v>
       </c>
       <c r="S44" s="218" t="s">
-        <v>2080</v>
+        <v>2124</v>
       </c>
       <c r="T44" s="219">
         <v>68.0</v>
@@ -31549,10 +31769,10 @@
         <v>7.0</v>
       </c>
       <c r="D45" s="215" t="s">
-        <v>2081</v>
+        <v>2125</v>
       </c>
       <c r="S45" s="218" t="s">
-        <v>2082</v>
+        <v>2126</v>
       </c>
       <c r="T45" s="219">
         <v>30.0</v>
@@ -31565,10 +31785,10 @@
         <v>8.0</v>
       </c>
       <c r="D46" s="215" t="s">
-        <v>2083</v>
+        <v>2127</v>
       </c>
       <c r="S46" s="218" t="s">
-        <v>2084</v>
+        <v>2128</v>
       </c>
       <c r="T46" s="219">
         <v>36.0</v>
@@ -31581,10 +31801,10 @@
         <v>9.0</v>
       </c>
       <c r="D47" s="215" t="s">
-        <v>2085</v>
+        <v>2129</v>
       </c>
       <c r="S47" s="218" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="T47" s="219">
         <v>42.0</v>
@@ -31597,10 +31817,10 @@
         <v>10.0</v>
       </c>
       <c r="D48" s="215" t="s">
-        <v>2087</v>
+        <v>2131</v>
       </c>
       <c r="S48" s="218" t="s">
-        <v>2088</v>
+        <v>2132</v>
       </c>
       <c r="T48" s="219">
         <v>46.0</v>

--- a/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
+++ b/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="2191">
   <si>
     <t>PI|GM</t>
   </si>
@@ -6328,6 +6328,180 @@
   </si>
   <si>
     <t>Pact</t>
+  </si>
+  <si>
+    <t>Cursive</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>Iterate (Syrup)</t>
+  </si>
+  <si>
+    <t>Vital</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>Communicate (Per)</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Rift</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>Dendrite (Salt)</t>
+  </si>
+  <si>
+    <t>Compact</t>
+  </si>
+  <si>
+    <t>Liquor</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>parody</t>
+  </si>
+  <si>
+    <t>Gang (Bow)</t>
+  </si>
+  <si>
+    <t>Barge</t>
+  </si>
+  <si>
+    <t>Honk</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>Ghost (Candle)</t>
+  </si>
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>advertise</t>
+  </si>
+  <si>
+    <t>Dope (Deposit)</t>
+  </si>
+  <si>
+    <t>Conscience</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>suppose</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>Polite (Treble)</t>
+  </si>
+  <si>
+    <t>Cardboard</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>grill</t>
+  </si>
+  <si>
+    <t>Crochet (Ball)</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Mercury</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>Poet (Mug)</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Distil</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>purge</t>
+  </si>
+  <si>
+    <t>Meteor (Crack)</t>
+  </si>
+  <si>
+    <t>Delicate</t>
+  </si>
+  <si>
+    <t>Naphtha</t>
+  </si>
+  <si>
+    <t>grudge</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>Elevate (Nut)</t>
+  </si>
+  <si>
+    <t>Acrylic</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>twilight</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>Associate (Pickle)</t>
+  </si>
+  <si>
+    <t>Skate</t>
   </si>
   <si>
     <r>
@@ -28442,7 +28616,9 @@
       <c r="F16" s="134"/>
       <c r="G16" s="134"/>
       <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="I16" s="134" t="s">
+        <v>1993</v>
+      </c>
       <c r="J16" s="135"/>
       <c r="K16" s="90" t="s">
         <v>416</v>
@@ -28458,7 +28634,9 @@
       <c r="R16" s="134"/>
       <c r="S16" s="134"/>
       <c r="T16" s="134"/>
-      <c r="U16" s="134"/>
+      <c r="U16" s="134" t="s">
+        <v>2003</v>
+      </c>
       <c r="V16" s="135"/>
       <c r="W16" s="90" t="s">
         <v>416</v>
@@ -28531,11 +28709,21 @@
       <c r="D19" s="76">
         <v>33.0</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
+      <c r="E19" s="146" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F19" s="147" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G19" s="148" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H19" s="149" t="s">
+        <v>2106</v>
+      </c>
+      <c r="I19" s="150" t="s">
+        <v>2107</v>
+      </c>
       <c r="J19" s="104"/>
       <c r="K19" s="78" t="s">
         <v>289</v>
@@ -28570,11 +28758,21 @@
       <c r="D20" s="58">
         <v>1.0</v>
       </c>
-      <c r="E20" s="186"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="159"/>
+      <c r="E20" s="186" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F20" s="157" t="s">
+        <v>2109</v>
+      </c>
+      <c r="G20" s="158" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H20" s="136" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I20" s="159" t="s">
+        <v>2112</v>
+      </c>
       <c r="J20" s="104"/>
       <c r="K20" s="78" t="s">
         <v>300</v>
@@ -28607,11 +28805,21 @@
       <c r="D21" s="58">
         <v>2.0</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="165"/>
+      <c r="E21" s="139" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F21" s="117" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G21" s="138" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H21" s="137" t="s">
+        <v>2116</v>
+      </c>
+      <c r="I21" s="165" t="s">
+        <v>2117</v>
+      </c>
       <c r="J21" s="104"/>
       <c r="K21" s="78" t="s">
         <v>312</v>
@@ -28646,11 +28854,21 @@
       <c r="D22" s="58">
         <v>3.0</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="165"/>
+      <c r="E22" s="139" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>2120</v>
+      </c>
+      <c r="H22" s="137" t="s">
+        <v>2121</v>
+      </c>
+      <c r="I22" s="165" t="s">
+        <v>2122</v>
+      </c>
       <c r="J22" s="104"/>
       <c r="K22" s="78" t="s">
         <v>324</v>
@@ -28683,11 +28901,21 @@
       <c r="D23" s="58">
         <v>4.0</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="165"/>
+      <c r="E23" s="139" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F23" s="117" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>2125</v>
+      </c>
+      <c r="H23" s="137" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I23" s="165" t="s">
+        <v>2127</v>
+      </c>
       <c r="J23" s="104"/>
       <c r="K23" s="78" t="s">
         <v>336</v>
@@ -28722,11 +28950,21 @@
       <c r="D24" s="58">
         <v>5.0</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="165"/>
+      <c r="E24" s="139" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F24" s="117" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G24" s="138" t="s">
+        <v>2129</v>
+      </c>
+      <c r="H24" s="137" t="s">
+        <v>2130</v>
+      </c>
+      <c r="I24" s="165" t="s">
+        <v>2131</v>
+      </c>
       <c r="J24" s="104"/>
       <c r="K24" s="78" t="s">
         <v>348</v>
@@ -28759,11 +28997,21 @@
       <c r="D25" s="58">
         <v>6.0</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="165"/>
+      <c r="E25" s="139" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F25" s="117" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G25" s="138" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H25" s="137" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I25" s="165" t="s">
+        <v>2136</v>
+      </c>
       <c r="J25" s="104"/>
       <c r="K25" s="78" t="s">
         <v>289</v>
@@ -28796,11 +29044,21 @@
       <c r="D26" s="58">
         <v>7.0</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="165"/>
+      <c r="E26" s="139" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F26" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="138" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H26" s="137" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I26" s="165" t="s">
+        <v>2140</v>
+      </c>
       <c r="J26" s="104"/>
       <c r="K26" s="78" t="s">
         <v>300</v>
@@ -28833,11 +29091,21 @@
       <c r="D27" s="58">
         <v>8.0</v>
       </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="165"/>
+      <c r="E27" s="139" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F27" s="117" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G27" s="138" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H27" s="137" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I27" s="165" t="s">
+        <v>2145</v>
+      </c>
       <c r="J27" s="104"/>
       <c r="K27" s="78" t="s">
         <v>312</v>
@@ -28870,11 +29138,21 @@
       <c r="D28" s="58">
         <v>9.0</v>
       </c>
-      <c r="E28" s="139"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="165"/>
+      <c r="E28" s="139" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F28" s="117" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G28" s="138" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H28" s="137" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I28" s="165" t="s">
+        <v>2150</v>
+      </c>
       <c r="J28" s="104"/>
       <c r="K28" s="78" t="s">
         <v>324</v>
@@ -28907,11 +29185,21 @@
       <c r="D29" s="58">
         <v>10.0</v>
       </c>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="125"/>
+      <c r="E29" s="173" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F29" s="174" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G29" s="175" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H29" s="122" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I29" s="125" t="s">
+        <v>2155</v>
+      </c>
       <c r="J29" s="104"/>
       <c r="K29" s="78" t="s">
         <v>336</v>
@@ -28946,11 +29234,21 @@
       <c r="D30" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="181"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="185"/>
+      <c r="E30" s="181" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F30" s="182" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G30" s="183" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I30" s="185" t="s">
+        <v>2160</v>
+      </c>
       <c r="J30" s="104"/>
       <c r="K30" s="85" t="s">
         <v>348</v>
@@ -29020,7 +29318,9 @@
       <c r="F32" s="134"/>
       <c r="G32" s="134"/>
       <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
+      <c r="I32" s="134" t="s">
+        <v>2013</v>
+      </c>
       <c r="J32" s="135"/>
       <c r="K32" s="90" t="s">
         <v>416</v>
@@ -29036,7 +29336,9 @@
       <c r="R32" s="134"/>
       <c r="S32" s="134"/>
       <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
+      <c r="U32" s="134" t="s">
+        <v>2023</v>
+      </c>
       <c r="V32" s="135"/>
       <c r="W32" s="90" t="s">
         <v>416</v>
@@ -31178,7 +31480,7 @@
       </c>
       <c r="D15" s="193"/>
       <c r="H15" s="196" t="s">
-        <v>2103</v>
+        <v>2161</v>
       </c>
       <c r="I15" s="197"/>
       <c r="J15" s="197"/>
@@ -31210,7 +31512,7 @@
       </c>
       <c r="D16" s="193"/>
       <c r="H16" s="199" t="s">
-        <v>2104</v>
+        <v>2162</v>
       </c>
       <c r="I16" s="197"/>
       <c r="J16" s="197"/>
@@ -31240,7 +31542,7 @@
       </c>
       <c r="D17" s="193"/>
       <c r="H17" s="200" t="s">
-        <v>2105</v>
+        <v>2163</v>
       </c>
       <c r="I17" s="197"/>
       <c r="J17" s="197"/>
@@ -31548,7 +31850,7 @@
     <row r="27">
       <c r="A27" s="190"/>
       <c r="B27" s="194" t="s">
-        <v>2106</v>
+        <v>2164</v>
       </c>
       <c r="C27" s="195">
         <v>6.0</v>
@@ -31613,28 +31915,28 @@
     <row r="29" ht="11.25" customHeight="1"/>
     <row r="30">
       <c r="B30" s="203" t="s">
-        <v>2107</v>
+        <v>2165</v>
       </c>
       <c r="C30" s="204" t="s">
-        <v>2108</v>
+        <v>2166</v>
       </c>
       <c r="D30" s="205"/>
       <c r="E30" s="205"/>
       <c r="F30" s="206" t="s">
-        <v>2109</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="207" t="s">
-        <v>2110</v>
+        <v>2168</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>2111</v>
+        <v>2169</v>
       </c>
       <c r="D31" s="209"/>
       <c r="E31" s="209"/>
       <c r="F31" s="210" t="s">
-        <v>2109</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="37">
@@ -31663,7 +31965,7 @@
       <c r="B38" s="214"/>
       <c r="C38" s="1"/>
       <c r="D38" s="215" t="s">
-        <v>2112</v>
+        <v>2170</v>
       </c>
       <c r="U38" s="216"/>
     </row>
@@ -31673,10 +31975,10 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="215" t="s">
-        <v>2113</v>
+        <v>2171</v>
       </c>
       <c r="S39" s="218" t="s">
-        <v>2114</v>
+        <v>2172</v>
       </c>
       <c r="T39" s="219">
         <v>33.0</v>
@@ -31689,10 +31991,10 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="215" t="s">
-        <v>2115</v>
+        <v>2173</v>
       </c>
       <c r="S40" s="218" t="s">
-        <v>2116</v>
+        <v>2174</v>
       </c>
       <c r="T40" s="219">
         <v>65.0</v>
@@ -31705,10 +32007,10 @@
         <v>3.0</v>
       </c>
       <c r="D41" s="215" t="s">
-        <v>2117</v>
+        <v>2175</v>
       </c>
       <c r="S41" s="218" t="s">
-        <v>2118</v>
+        <v>2176</v>
       </c>
       <c r="T41" s="219">
         <v>43.0</v>
@@ -31721,10 +32023,10 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>2119</v>
+        <v>2177</v>
       </c>
       <c r="S42" s="218" t="s">
-        <v>2120</v>
+        <v>2178</v>
       </c>
       <c r="T42" s="219">
         <v>41.0</v>
@@ -31737,10 +32039,10 @@
         <v>5.0</v>
       </c>
       <c r="D43" s="215" t="s">
-        <v>2121</v>
+        <v>2179</v>
       </c>
       <c r="S43" s="218" t="s">
-        <v>2122</v>
+        <v>2180</v>
       </c>
       <c r="T43" s="219">
         <v>50.0</v>
@@ -31753,10 +32055,10 @@
         <v>6.0</v>
       </c>
       <c r="D44" s="215" t="s">
-        <v>2123</v>
+        <v>2181</v>
       </c>
       <c r="S44" s="218" t="s">
-        <v>2124</v>
+        <v>2182</v>
       </c>
       <c r="T44" s="219">
         <v>68.0</v>
@@ -31769,10 +32071,10 @@
         <v>7.0</v>
       </c>
       <c r="D45" s="215" t="s">
-        <v>2125</v>
+        <v>2183</v>
       </c>
       <c r="S45" s="218" t="s">
-        <v>2126</v>
+        <v>2184</v>
       </c>
       <c r="T45" s="219">
         <v>30.0</v>
@@ -31785,10 +32087,10 @@
         <v>8.0</v>
       </c>
       <c r="D46" s="215" t="s">
-        <v>2127</v>
+        <v>2185</v>
       </c>
       <c r="S46" s="218" t="s">
-        <v>2128</v>
+        <v>2186</v>
       </c>
       <c r="T46" s="219">
         <v>36.0</v>
@@ -31801,10 +32103,10 @@
         <v>9.0</v>
       </c>
       <c r="D47" s="215" t="s">
-        <v>2129</v>
+        <v>2187</v>
       </c>
       <c r="S47" s="218" t="s">
-        <v>2130</v>
+        <v>2188</v>
       </c>
       <c r="T47" s="219">
         <v>42.0</v>
@@ -31817,10 +32119,10 @@
         <v>10.0</v>
       </c>
       <c r="D48" s="215" t="s">
-        <v>2131</v>
+        <v>2189</v>
       </c>
       <c r="S48" s="218" t="s">
-        <v>2132</v>
+        <v>2190</v>
       </c>
       <c r="T48" s="219">
         <v>46.0</v>

--- a/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
+++ b/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="2251">
   <si>
     <t>PI|GM</t>
   </si>
@@ -6345,6 +6345,21 @@
     <t>Vital</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
+    <t>parachute</t>
+  </si>
+  <si>
+    <t>cadre</t>
+  </si>
+  <si>
+    <t>Crawl (Genius)</t>
+  </si>
+  <si>
+    <t>Cry</t>
+  </si>
+  <si>
     <t>Vinegar</t>
   </si>
   <si>
@@ -6360,6 +6375,21 @@
     <t>Layout</t>
   </si>
   <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
+    <t>Tail (Descent)</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
     <t>Rift</t>
   </si>
   <si>
@@ -6375,6 +6405,21 @@
     <t>Compact</t>
   </si>
   <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>clue</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>Sensitive (Sting)</t>
+  </si>
+  <si>
+    <t>Brash</t>
+  </si>
+  <si>
     <t>Liquor</t>
   </si>
   <si>
@@ -6390,6 +6435,21 @@
     <t>Barge</t>
   </si>
   <si>
+    <t>Obtuse</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>Access (Modest)</t>
+  </si>
+  <si>
+    <t>Stoop</t>
+  </si>
+  <si>
     <t>Honk</t>
   </si>
   <si>
@@ -6405,6 +6465,21 @@
     <t>Breed</t>
   </si>
   <si>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>Kind (Intelligent)</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
     <t>Friend</t>
   </si>
   <si>
@@ -6417,6 +6492,21 @@
     <t>Conscience</t>
   </si>
   <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>tickle</t>
+  </si>
+  <si>
+    <t>Possess (Brilliant)</t>
+  </si>
+  <si>
+    <t>Approximate</t>
+  </si>
+  <si>
     <t>Partner</t>
   </si>
   <si>
@@ -6432,6 +6522,21 @@
     <t>Cardboard</t>
   </si>
   <si>
+    <t>Observe</t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>tremor</t>
+  </si>
+  <si>
+    <t>Semantic (Moderate)</t>
+  </si>
+  <si>
+    <t>Strange</t>
+  </si>
+  <si>
     <t>Luke</t>
   </si>
   <si>
@@ -6444,6 +6549,21 @@
     <t>Staff</t>
   </si>
   <si>
+    <t>Remorse</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>mandate</t>
+  </si>
+  <si>
+    <t>Metaphor (Curly)</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
     <t>Mercury</t>
   </si>
   <si>
@@ -6459,6 +6579,21 @@
     <t>Dim</t>
   </si>
   <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>epitome</t>
+  </si>
+  <si>
+    <t>Cringe (Dash)</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
     <t>Distil</t>
   </si>
   <si>
@@ -6474,6 +6609,21 @@
     <t>Delicate</t>
   </si>
   <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>logistic</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>Conclude (Chubby)</t>
+  </si>
+  <si>
+    <t>Desire</t>
+  </si>
+  <si>
     <t>Naphtha</t>
   </si>
   <si>
@@ -6489,6 +6639,21 @@
     <t>Acrylic</t>
   </si>
   <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>crate</t>
+  </si>
+  <si>
+    <t>Future (Girl)</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
     <t>Italic</t>
   </si>
   <si>
@@ -6502,6 +6667,21 @@
   </si>
   <si>
     <t>Skate</t>
+  </si>
+  <si>
+    <t>Custard</t>
+  </si>
+  <si>
+    <t>grease</t>
+  </si>
+  <si>
+    <t>tentacle</t>
+  </si>
+  <si>
+    <t>Suffer (Brigade)</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
   <si>
     <r>
@@ -8399,7 +8579,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="11" width="5.75"/>
     <col customWidth="1" min="12" max="12" width="4.63"/>
@@ -8409,7 +8589,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="4.63"/>
   </cols>
@@ -8779,7 +8959,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -8788,7 +8968,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="5.75"/>
   </cols>
@@ -9853,7 +10033,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -9862,7 +10042,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="4.63"/>
   </cols>
@@ -10882,7 +11062,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -10891,7 +11071,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="22.25"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="4.63"/>
   </cols>
@@ -12048,7 +12228,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -12057,7 +12237,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="5.75"/>
   </cols>
@@ -19708,7 +19888,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -19717,7 +19897,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="5.75"/>
   </cols>
@@ -23770,7 +23950,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -23779,7 +23959,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="5.75"/>
   </cols>
@@ -27827,7 +28007,7 @@
     <col customWidth="1" min="5" max="5" width="13.75"/>
     <col customWidth="1" min="6" max="7" width="21.38"/>
     <col customWidth="1" min="8" max="8" width="23.63"/>
-    <col customWidth="1" min="9" max="9" width="13.75"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="2.0"/>
     <col customWidth="1" min="11" max="12" width="5.75"/>
     <col customWidth="1" min="13" max="14" width="2.0"/>
@@ -27836,7 +28016,7 @@
     <col customWidth="1" min="17" max="17" width="13.75"/>
     <col customWidth="1" min="18" max="19" width="21.38"/>
     <col customWidth="1" min="20" max="20" width="23.63"/>
-    <col customWidth="1" min="21" max="21" width="13.75"/>
+    <col customWidth="1" min="21" max="21" width="13.88"/>
     <col customWidth="1" min="22" max="22" width="2.0"/>
     <col customWidth="1" min="23" max="24" width="5.75"/>
   </cols>
@@ -28739,11 +28919,21 @@
       <c r="P19" s="76">
         <v>34.0</v>
       </c>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="150"/>
+      <c r="Q19" s="146" t="s">
+        <v>2108</v>
+      </c>
+      <c r="R19" s="147" t="s">
+        <v>2109</v>
+      </c>
+      <c r="S19" s="148" t="s">
+        <v>2110</v>
+      </c>
+      <c r="T19" s="149" t="s">
+        <v>2111</v>
+      </c>
+      <c r="U19" s="150" t="s">
+        <v>2112</v>
+      </c>
       <c r="V19" s="104"/>
       <c r="W19" s="78" t="s">
         <v>289</v>
@@ -28759,19 +28949,19 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="186" t="s">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="F20" s="157" t="s">
-        <v>2109</v>
+        <v>2114</v>
       </c>
       <c r="G20" s="158" t="s">
-        <v>2110</v>
+        <v>2115</v>
       </c>
       <c r="H20" s="136" t="s">
-        <v>2111</v>
+        <v>2116</v>
       </c>
       <c r="I20" s="159" t="s">
-        <v>2112</v>
+        <v>2117</v>
       </c>
       <c r="J20" s="104"/>
       <c r="K20" s="78" t="s">
@@ -28786,11 +28976,21 @@
       <c r="P20" s="58">
         <v>1.0</v>
       </c>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="157"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="159"/>
+      <c r="Q20" s="186" t="s">
+        <v>2118</v>
+      </c>
+      <c r="R20" s="157" t="s">
+        <v>2119</v>
+      </c>
+      <c r="S20" s="158" t="s">
+        <v>2120</v>
+      </c>
+      <c r="T20" s="136" t="s">
+        <v>2121</v>
+      </c>
+      <c r="U20" s="159" t="s">
+        <v>2122</v>
+      </c>
       <c r="V20" s="104"/>
       <c r="W20" s="78" t="s">
         <v>300</v>
@@ -28806,19 +29006,19 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="139" t="s">
-        <v>2113</v>
+        <v>2123</v>
       </c>
       <c r="F21" s="117" t="s">
-        <v>2114</v>
+        <v>2124</v>
       </c>
       <c r="G21" s="138" t="s">
-        <v>2115</v>
+        <v>2125</v>
       </c>
       <c r="H21" s="137" t="s">
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="I21" s="165" t="s">
-        <v>2117</v>
+        <v>2127</v>
       </c>
       <c r="J21" s="104"/>
       <c r="K21" s="78" t="s">
@@ -28833,11 +29033,21 @@
       <c r="P21" s="58">
         <v>2.0</v>
       </c>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="137"/>
-      <c r="U21" s="165"/>
+      <c r="Q21" s="139" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R21" s="117" t="s">
+        <v>2129</v>
+      </c>
+      <c r="S21" s="138" t="s">
+        <v>2130</v>
+      </c>
+      <c r="T21" s="137" t="s">
+        <v>2131</v>
+      </c>
+      <c r="U21" s="165" t="s">
+        <v>2132</v>
+      </c>
       <c r="V21" s="104"/>
       <c r="W21" s="78" t="s">
         <v>312</v>
@@ -28855,19 +29065,19 @@
         <v>3.0</v>
       </c>
       <c r="E22" s="139" t="s">
-        <v>2118</v>
+        <v>2133</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>2119</v>
+        <v>2134</v>
       </c>
       <c r="G22" s="138" t="s">
-        <v>2120</v>
+        <v>2135</v>
       </c>
       <c r="H22" s="137" t="s">
-        <v>2121</v>
+        <v>2136</v>
       </c>
       <c r="I22" s="165" t="s">
-        <v>2122</v>
+        <v>2137</v>
       </c>
       <c r="J22" s="104"/>
       <c r="K22" s="78" t="s">
@@ -28882,11 +29092,21 @@
       <c r="P22" s="58">
         <v>3.0</v>
       </c>
-      <c r="Q22" s="139"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="137"/>
-      <c r="U22" s="165"/>
+      <c r="Q22" s="139" t="s">
+        <v>2138</v>
+      </c>
+      <c r="R22" s="117" t="s">
+        <v>2139</v>
+      </c>
+      <c r="S22" s="138" t="s">
+        <v>2140</v>
+      </c>
+      <c r="T22" s="137" t="s">
+        <v>2141</v>
+      </c>
+      <c r="U22" s="165" t="s">
+        <v>2142</v>
+      </c>
       <c r="V22" s="104"/>
       <c r="W22" s="78" t="s">
         <v>324</v>
@@ -28902,19 +29122,19 @@
         <v>4.0</v>
       </c>
       <c r="E23" s="139" t="s">
-        <v>2123</v>
+        <v>2143</v>
       </c>
       <c r="F23" s="117" t="s">
-        <v>2124</v>
+        <v>2144</v>
       </c>
       <c r="G23" s="138" t="s">
-        <v>2125</v>
+        <v>2145</v>
       </c>
       <c r="H23" s="137" t="s">
-        <v>2126</v>
+        <v>2146</v>
       </c>
       <c r="I23" s="165" t="s">
-        <v>2127</v>
+        <v>2147</v>
       </c>
       <c r="J23" s="104"/>
       <c r="K23" s="78" t="s">
@@ -28931,11 +29151,21 @@
       <c r="P23" s="58">
         <v>4.0</v>
       </c>
-      <c r="Q23" s="139"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="137"/>
-      <c r="U23" s="165"/>
+      <c r="Q23" s="139" t="s">
+        <v>2148</v>
+      </c>
+      <c r="R23" s="117" t="s">
+        <v>2149</v>
+      </c>
+      <c r="S23" s="138" t="s">
+        <v>2150</v>
+      </c>
+      <c r="T23" s="137" t="s">
+        <v>2151</v>
+      </c>
+      <c r="U23" s="165" t="s">
+        <v>2152</v>
+      </c>
       <c r="V23" s="104"/>
       <c r="W23" s="78" t="s">
         <v>336</v>
@@ -28951,19 +29181,19 @@
         <v>5.0</v>
       </c>
       <c r="E24" s="139" t="s">
-        <v>2128</v>
+        <v>2153</v>
       </c>
       <c r="F24" s="117" t="s">
         <v>1716</v>
       </c>
       <c r="G24" s="138" t="s">
-        <v>2129</v>
+        <v>2154</v>
       </c>
       <c r="H24" s="137" t="s">
-        <v>2130</v>
+        <v>2155</v>
       </c>
       <c r="I24" s="165" t="s">
-        <v>2131</v>
+        <v>2156</v>
       </c>
       <c r="J24" s="104"/>
       <c r="K24" s="78" t="s">
@@ -28978,11 +29208,21 @@
       <c r="P24" s="58">
         <v>5.0</v>
       </c>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="165"/>
+      <c r="Q24" s="139" t="s">
+        <v>2157</v>
+      </c>
+      <c r="R24" s="117" t="s">
+        <v>2158</v>
+      </c>
+      <c r="S24" s="138" t="s">
+        <v>2159</v>
+      </c>
+      <c r="T24" s="137" t="s">
+        <v>2160</v>
+      </c>
+      <c r="U24" s="165" t="s">
+        <v>2161</v>
+      </c>
       <c r="V24" s="104"/>
       <c r="W24" s="78" t="s">
         <v>348</v>
@@ -28998,19 +29238,19 @@
         <v>6.0</v>
       </c>
       <c r="E25" s="139" t="s">
-        <v>2132</v>
+        <v>2162</v>
       </c>
       <c r="F25" s="117" t="s">
-        <v>2133</v>
+        <v>2163</v>
       </c>
       <c r="G25" s="138" t="s">
-        <v>2134</v>
+        <v>2164</v>
       </c>
       <c r="H25" s="137" t="s">
-        <v>2135</v>
+        <v>2165</v>
       </c>
       <c r="I25" s="165" t="s">
-        <v>2136</v>
+        <v>2166</v>
       </c>
       <c r="J25" s="104"/>
       <c r="K25" s="78" t="s">
@@ -29025,11 +29265,21 @@
       <c r="P25" s="58">
         <v>6.0</v>
       </c>
-      <c r="Q25" s="139"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="165"/>
+      <c r="Q25" s="139" t="s">
+        <v>2167</v>
+      </c>
+      <c r="R25" s="117" t="s">
+        <v>2168</v>
+      </c>
+      <c r="S25" s="138" t="s">
+        <v>2169</v>
+      </c>
+      <c r="T25" s="137" t="s">
+        <v>2170</v>
+      </c>
+      <c r="U25" s="165" t="s">
+        <v>2171</v>
+      </c>
       <c r="V25" s="104"/>
       <c r="W25" s="78" t="s">
         <v>289</v>
@@ -29045,19 +29295,19 @@
         <v>7.0</v>
       </c>
       <c r="E26" s="139" t="s">
-        <v>2137</v>
+        <v>2172</v>
       </c>
       <c r="F26" s="117" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="138" t="s">
-        <v>2138</v>
+        <v>2173</v>
       </c>
       <c r="H26" s="137" t="s">
-        <v>2139</v>
+        <v>2174</v>
       </c>
       <c r="I26" s="165" t="s">
-        <v>2140</v>
+        <v>2175</v>
       </c>
       <c r="J26" s="104"/>
       <c r="K26" s="78" t="s">
@@ -29072,11 +29322,21 @@
       <c r="P26" s="58">
         <v>7.0</v>
       </c>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="165"/>
+      <c r="Q26" s="139" t="s">
+        <v>2176</v>
+      </c>
+      <c r="R26" s="117" t="s">
+        <v>2177</v>
+      </c>
+      <c r="S26" s="138" t="s">
+        <v>2178</v>
+      </c>
+      <c r="T26" s="137" t="s">
+        <v>2179</v>
+      </c>
+      <c r="U26" s="165" t="s">
+        <v>2180</v>
+      </c>
       <c r="V26" s="104"/>
       <c r="W26" s="78" t="s">
         <v>300</v>
@@ -29092,19 +29352,19 @@
         <v>8.0</v>
       </c>
       <c r="E27" s="139" t="s">
-        <v>2141</v>
+        <v>2181</v>
       </c>
       <c r="F27" s="117" t="s">
-        <v>2142</v>
+        <v>2182</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>2143</v>
+        <v>2183</v>
       </c>
       <c r="H27" s="137" t="s">
-        <v>2144</v>
+        <v>2184</v>
       </c>
       <c r="I27" s="165" t="s">
-        <v>2145</v>
+        <v>2185</v>
       </c>
       <c r="J27" s="104"/>
       <c r="K27" s="78" t="s">
@@ -29119,11 +29379,21 @@
       <c r="P27" s="58">
         <v>8.0</v>
       </c>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="165"/>
+      <c r="Q27" s="139" t="s">
+        <v>2186</v>
+      </c>
+      <c r="R27" s="117" t="s">
+        <v>2187</v>
+      </c>
+      <c r="S27" s="138" t="s">
+        <v>2188</v>
+      </c>
+      <c r="T27" s="137" t="s">
+        <v>2189</v>
+      </c>
+      <c r="U27" s="165" t="s">
+        <v>2190</v>
+      </c>
       <c r="V27" s="104"/>
       <c r="W27" s="78" t="s">
         <v>312</v>
@@ -29139,19 +29409,19 @@
         <v>9.0</v>
       </c>
       <c r="E28" s="139" t="s">
-        <v>2146</v>
+        <v>2191</v>
       </c>
       <c r="F28" s="117" t="s">
-        <v>2147</v>
+        <v>2192</v>
       </c>
       <c r="G28" s="138" t="s">
-        <v>2148</v>
+        <v>2193</v>
       </c>
       <c r="H28" s="137" t="s">
-        <v>2149</v>
+        <v>2194</v>
       </c>
       <c r="I28" s="165" t="s">
-        <v>2150</v>
+        <v>2195</v>
       </c>
       <c r="J28" s="104"/>
       <c r="K28" s="78" t="s">
@@ -29166,11 +29436,21 @@
       <c r="P28" s="58">
         <v>9.0</v>
       </c>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="137"/>
-      <c r="U28" s="165"/>
+      <c r="Q28" s="139" t="s">
+        <v>2196</v>
+      </c>
+      <c r="R28" s="117" t="s">
+        <v>2197</v>
+      </c>
+      <c r="S28" s="138" t="s">
+        <v>2198</v>
+      </c>
+      <c r="T28" s="137" t="s">
+        <v>2199</v>
+      </c>
+      <c r="U28" s="165" t="s">
+        <v>2200</v>
+      </c>
       <c r="V28" s="104"/>
       <c r="W28" s="78" t="s">
         <v>324</v>
@@ -29186,19 +29466,19 @@
         <v>10.0</v>
       </c>
       <c r="E29" s="173" t="s">
-        <v>2151</v>
+        <v>2201</v>
       </c>
       <c r="F29" s="174" t="s">
-        <v>2152</v>
+        <v>2202</v>
       </c>
       <c r="G29" s="175" t="s">
-        <v>2153</v>
+        <v>2203</v>
       </c>
       <c r="H29" s="122" t="s">
-        <v>2154</v>
+        <v>2204</v>
       </c>
       <c r="I29" s="125" t="s">
-        <v>2155</v>
+        <v>2205</v>
       </c>
       <c r="J29" s="104"/>
       <c r="K29" s="78" t="s">
@@ -29213,11 +29493,21 @@
       <c r="P29" s="58">
         <v>10.0</v>
       </c>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="125"/>
+      <c r="Q29" s="173" t="s">
+        <v>2206</v>
+      </c>
+      <c r="R29" s="174" t="s">
+        <v>2207</v>
+      </c>
+      <c r="S29" s="175" t="s">
+        <v>2208</v>
+      </c>
+      <c r="T29" s="122" t="s">
+        <v>2209</v>
+      </c>
+      <c r="U29" s="125" t="s">
+        <v>2210</v>
+      </c>
       <c r="V29" s="104"/>
       <c r="W29" s="78" t="s">
         <v>336</v>
@@ -29235,19 +29525,19 @@
         <v>38</v>
       </c>
       <c r="E30" s="181" t="s">
-        <v>2156</v>
+        <v>2211</v>
       </c>
       <c r="F30" s="182" t="s">
-        <v>2157</v>
+        <v>2212</v>
       </c>
       <c r="G30" s="183" t="s">
-        <v>2158</v>
+        <v>2213</v>
       </c>
       <c r="H30" s="184" t="s">
-        <v>2159</v>
+        <v>2214</v>
       </c>
       <c r="I30" s="185" t="s">
-        <v>2160</v>
+        <v>2215</v>
       </c>
       <c r="J30" s="104"/>
       <c r="K30" s="85" t="s">
@@ -29264,11 +29554,21 @@
       <c r="P30" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="185"/>
+      <c r="Q30" s="181" t="s">
+        <v>2216</v>
+      </c>
+      <c r="R30" s="182" t="s">
+        <v>2217</v>
+      </c>
+      <c r="S30" s="183" t="s">
+        <v>2218</v>
+      </c>
+      <c r="T30" s="184" t="s">
+        <v>2219</v>
+      </c>
+      <c r="U30" s="185" t="s">
+        <v>2220</v>
+      </c>
       <c r="V30" s="104"/>
       <c r="W30" s="85" t="s">
         <v>348</v>
@@ -31480,7 +31780,7 @@
       </c>
       <c r="D15" s="193"/>
       <c r="H15" s="196" t="s">
-        <v>2161</v>
+        <v>2221</v>
       </c>
       <c r="I15" s="197"/>
       <c r="J15" s="197"/>
@@ -31512,7 +31812,7 @@
       </c>
       <c r="D16" s="193"/>
       <c r="H16" s="199" t="s">
-        <v>2162</v>
+        <v>2222</v>
       </c>
       <c r="I16" s="197"/>
       <c r="J16" s="197"/>
@@ -31542,7 +31842,7 @@
       </c>
       <c r="D17" s="193"/>
       <c r="H17" s="200" t="s">
-        <v>2163</v>
+        <v>2223</v>
       </c>
       <c r="I17" s="197"/>
       <c r="J17" s="197"/>
@@ -31850,7 +32150,7 @@
     <row r="27">
       <c r="A27" s="190"/>
       <c r="B27" s="194" t="s">
-        <v>2164</v>
+        <v>2224</v>
       </c>
       <c r="C27" s="195">
         <v>6.0</v>
@@ -31915,28 +32215,28 @@
     <row r="29" ht="11.25" customHeight="1"/>
     <row r="30">
       <c r="B30" s="203" t="s">
-        <v>2165</v>
+        <v>2225</v>
       </c>
       <c r="C30" s="204" t="s">
-        <v>2166</v>
+        <v>2226</v>
       </c>
       <c r="D30" s="205"/>
       <c r="E30" s="205"/>
       <c r="F30" s="206" t="s">
-        <v>2167</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="207" t="s">
-        <v>2168</v>
+        <v>2228</v>
       </c>
       <c r="C31" s="208" t="s">
-        <v>2169</v>
+        <v>2229</v>
       </c>
       <c r="D31" s="209"/>
       <c r="E31" s="209"/>
       <c r="F31" s="210" t="s">
-        <v>2167</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="37">
@@ -31965,7 +32265,7 @@
       <c r="B38" s="214"/>
       <c r="C38" s="1"/>
       <c r="D38" s="215" t="s">
-        <v>2170</v>
+        <v>2230</v>
       </c>
       <c r="U38" s="216"/>
     </row>
@@ -31975,10 +32275,10 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="215" t="s">
-        <v>2171</v>
+        <v>2231</v>
       </c>
       <c r="S39" s="218" t="s">
-        <v>2172</v>
+        <v>2232</v>
       </c>
       <c r="T39" s="219">
         <v>33.0</v>
@@ -31991,10 +32291,10 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="215" t="s">
-        <v>2173</v>
+        <v>2233</v>
       </c>
       <c r="S40" s="218" t="s">
-        <v>2174</v>
+        <v>2234</v>
       </c>
       <c r="T40" s="219">
         <v>65.0</v>
@@ -32007,10 +32307,10 @@
         <v>3.0</v>
       </c>
       <c r="D41" s="215" t="s">
-        <v>2175</v>
+        <v>2235</v>
       </c>
       <c r="S41" s="218" t="s">
-        <v>2176</v>
+        <v>2236</v>
       </c>
       <c r="T41" s="219">
         <v>43.0</v>
@@ -32023,10 +32323,10 @@
         <v>4.0</v>
       </c>
       <c r="D42" s="215" t="s">
-        <v>2177</v>
+        <v>2237</v>
       </c>
       <c r="S42" s="218" t="s">
-        <v>2178</v>
+        <v>2238</v>
       </c>
       <c r="T42" s="219">
         <v>41.0</v>
@@ -32039,10 +32339,10 @@
         <v>5.0</v>
       </c>
       <c r="D43" s="215" t="s">
-        <v>2179</v>
+        <v>2239</v>
       </c>
       <c r="S43" s="218" t="s">
-        <v>2180</v>
+        <v>2240</v>
       </c>
       <c r="T43" s="219">
         <v>50.0</v>
@@ -32055,10 +32355,10 @@
         <v>6.0</v>
       </c>
       <c r="D44" s="215" t="s">
-        <v>2181</v>
+        <v>2241</v>
       </c>
       <c r="S44" s="218" t="s">
-        <v>2182</v>
+        <v>2242</v>
       </c>
       <c r="T44" s="219">
         <v>68.0</v>
@@ -32071,10 +32371,10 @@
         <v>7.0</v>
       </c>
       <c r="D45" s="215" t="s">
-        <v>2183</v>
+        <v>2243</v>
       </c>
       <c r="S45" s="218" t="s">
-        <v>2184</v>
+        <v>2244</v>
       </c>
       <c r="T45" s="219">
         <v>30.0</v>
@@ -32087,10 +32387,10 @@
         <v>8.0</v>
       </c>
       <c r="D46" s="215" t="s">
-        <v>2185</v>
+        <v>2245</v>
       </c>
       <c r="S46" s="218" t="s">
-        <v>2186</v>
+        <v>2246</v>
       </c>
       <c r="T46" s="219">
         <v>36.0</v>
@@ -32103,10 +32403,10 @@
         <v>9.0</v>
       </c>
       <c r="D47" s="215" t="s">
-        <v>2187</v>
+        <v>2247</v>
       </c>
       <c r="S47" s="218" t="s">
-        <v>2188</v>
+        <v>2248</v>
       </c>
       <c r="T47" s="219">
         <v>42.0</v>
@@ -32119,10 +32419,10 @@
         <v>10.0</v>
       </c>
       <c r="D48" s="215" t="s">
-        <v>2189</v>
+        <v>2249</v>
       </c>
       <c r="S48" s="218" t="s">
-        <v>2190</v>
+        <v>2250</v>
       </c>
       <c r="T48" s="219">
         <v>46.0</v>

--- a/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
+++ b/. Excess (Initial)/pocketAccount51/pocketAccount51.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4125" uniqueCount="2425">
   <si>
     <t>PI|GM</t>
   </si>
@@ -4680,7 +4680,7 @@
     <t>Refill</t>
   </si>
   <si>
-    <t>kitty</t>
+    <t>kit</t>
   </si>
   <si>
     <t>mind</t>
@@ -6864,6 +6864,21 @@
     <t>Ship</t>
   </si>
   <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>streak</t>
+  </si>
+  <si>
+    <t>(Infinite)</t>
+  </si>
+  <si>
+    <t>Digit</t>
+  </si>
+  <si>
     <t>Introduce</t>
   </si>
   <si>
@@ -6879,6 +6894,21 @@
     <t>Rapid</t>
   </si>
   <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>scheme</t>
+  </si>
+  <si>
+    <t>lyric</t>
+  </si>
+  <si>
+    <t>(Bury)</t>
+  </si>
+  <si>
+    <t>Yard</t>
+  </si>
+  <si>
     <t>Elaborate</t>
   </si>
   <si>
@@ -6894,6 +6924,21 @@
     <t>Zip</t>
   </si>
   <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>skit</t>
+  </si>
+  <si>
+    <t>beep</t>
+  </si>
+  <si>
+    <t>(Loose)</t>
+  </si>
+  <si>
+    <t>Cage</t>
+  </si>
+  <si>
     <t>Enormous</t>
   </si>
   <si>
@@ -6909,6 +6954,21 @@
     <t>Hype</t>
   </si>
   <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>snip</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>(Brook)</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
     <t>Repository</t>
   </si>
   <si>
@@ -6924,6 +6984,21 @@
     <t>Trust</t>
   </si>
   <si>
+    <t>Furry</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>glance</t>
+  </si>
+  <si>
+    <t>(Flake)</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
     <t>cramp</t>
   </si>
   <si>
@@ -6936,6 +7011,21 @@
     <t>But</t>
   </si>
   <si>
+    <t>Accuse</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>rush</t>
+  </si>
+  <si>
+    <t>(Simple)</t>
+  </si>
+  <si>
+    <t>Canteen</t>
+  </si>
+  <si>
     <t>Visible</t>
   </si>
   <si>
@@ -6951,6 +7041,21 @@
     <t>Nip</t>
   </si>
   <si>
+    <t>Belong</t>
+  </si>
+  <si>
+    <t>lace</t>
+  </si>
+  <si>
+    <t>locket</t>
+  </si>
+  <si>
+    <t>(Slag)</t>
+  </si>
+  <si>
+    <t>Gargle</t>
+  </si>
+  <si>
     <t>Ordinary</t>
   </si>
   <si>
@@ -6966,6 +7071,21 @@
     <t>Far</t>
   </si>
   <si>
+    <t>Charm</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>(Round)</t>
+  </si>
+  <si>
+    <t>Slash</t>
+  </si>
+  <si>
     <t>Ignite</t>
   </si>
   <si>
@@ -6981,6 +7101,21 @@
     <t>Rap</t>
   </si>
   <si>
+    <t>Clot</t>
+  </si>
+  <si>
+    <t>each</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>(Shore)</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
     <t>Popular</t>
   </si>
   <si>
@@ -6996,6 +7131,21 @@
     <t>Jug</t>
   </si>
   <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>techno</t>
+  </si>
+  <si>
+    <t>(Hose)</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
     <t>Efficient</t>
   </si>
   <si>
@@ -7011,6 +7161,21 @@
     <t>Seize</t>
   </si>
   <si>
+    <t>Assume</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>(Stiff)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Kitty</t>
   </si>
   <si>
@@ -7024,6 +7189,21 @@
   </si>
   <si>
     <t>Hatch</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>(Captain)</t>
+  </si>
+  <si>
+    <t>Dote</t>
   </si>
   <si>
     <r>
@@ -8030,7 +8210,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8585,6 +8765,9 @@
     <xf borderId="12" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -30263,11 +30446,21 @@
       <c r="P35" s="76">
         <v>36.0</v>
       </c>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="147"/>
-      <c r="S35" s="148"/>
-      <c r="T35" s="149"/>
-      <c r="U35" s="150"/>
+      <c r="Q35" s="146" t="s">
+        <v>2281</v>
+      </c>
+      <c r="R35" s="147" t="s">
+        <v>2282</v>
+      </c>
+      <c r="S35" s="148" t="s">
+        <v>2283</v>
+      </c>
+      <c r="T35" s="149" t="s">
+        <v>2284</v>
+      </c>
+      <c r="U35" s="150" t="s">
+        <v>2285</v>
+      </c>
       <c r="V35" s="104"/>
       <c r="W35" s="78" t="s">
         <v>347</v>
@@ -30283,19 +30476,19 @@
         <v>1.0</v>
       </c>
       <c r="E36" s="186" t="s">
-        <v>2281</v>
+        <v>2286</v>
       </c>
       <c r="F36" s="157" t="s">
-        <v>2282</v>
+        <v>2287</v>
       </c>
       <c r="G36" s="158" t="s">
-        <v>2283</v>
+        <v>2288</v>
       </c>
       <c r="H36" s="136" t="s">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="I36" s="159" t="s">
-        <v>2285</v>
+        <v>2290</v>
       </c>
       <c r="J36" s="104"/>
       <c r="K36" s="78" t="s">
@@ -30310,11 +30503,21 @@
       <c r="P36" s="58">
         <v>1.0</v>
       </c>
-      <c r="Q36" s="186"/>
-      <c r="R36" s="157"/>
-      <c r="S36" s="158"/>
-      <c r="T36" s="136"/>
-      <c r="U36" s="159"/>
+      <c r="Q36" s="186" t="s">
+        <v>2291</v>
+      </c>
+      <c r="R36" s="157" t="s">
+        <v>2292</v>
+      </c>
+      <c r="S36" s="158" t="s">
+        <v>2293</v>
+      </c>
+      <c r="T36" s="136" t="s">
+        <v>2294</v>
+      </c>
+      <c r="U36" s="159" t="s">
+        <v>2295</v>
+      </c>
       <c r="V36" s="104"/>
       <c r="W36" s="78" t="s">
         <v>358</v>
@@ -30330,19 +30533,19 @@
         <v>2.0</v>
       </c>
       <c r="E37" s="139" t="s">
-        <v>2286</v>
+        <v>2296</v>
       </c>
       <c r="F37" s="117" t="s">
-        <v>2287</v>
+        <v>2297</v>
       </c>
       <c r="G37" s="138" t="s">
-        <v>2288</v>
+        <v>2298</v>
       </c>
       <c r="H37" s="137" t="s">
-        <v>2289</v>
+        <v>2299</v>
       </c>
       <c r="I37" s="165" t="s">
-        <v>2290</v>
+        <v>2300</v>
       </c>
       <c r="J37" s="104"/>
       <c r="K37" s="78" t="s">
@@ -30357,11 +30560,21 @@
       <c r="P37" s="58">
         <v>2.0</v>
       </c>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="117"/>
-      <c r="S37" s="138"/>
-      <c r="T37" s="137"/>
-      <c r="U37" s="165"/>
+      <c r="Q37" s="139" t="s">
+        <v>2301</v>
+      </c>
+      <c r="R37" s="117" t="s">
+        <v>2302</v>
+      </c>
+      <c r="S37" s="138" t="s">
+        <v>2303</v>
+      </c>
+      <c r="T37" s="136" t="s">
+        <v>2304</v>
+      </c>
+      <c r="U37" s="159" t="s">
+        <v>2305</v>
+      </c>
       <c r="V37" s="104"/>
       <c r="W37" s="78" t="s">
         <v>370</v>
@@ -30377,19 +30590,19 @@
         <v>3.0</v>
       </c>
       <c r="E38" s="139" t="s">
-        <v>2291</v>
+        <v>2306</v>
       </c>
       <c r="F38" s="117" t="s">
-        <v>2292</v>
+        <v>2307</v>
       </c>
       <c r="G38" s="138" t="s">
-        <v>2293</v>
+        <v>2308</v>
       </c>
       <c r="H38" s="137" t="s">
-        <v>2294</v>
+        <v>2309</v>
       </c>
       <c r="I38" s="165" t="s">
-        <v>2295</v>
+        <v>2310</v>
       </c>
       <c r="J38" s="104"/>
       <c r="K38" s="78" t="s">
@@ -30404,11 +30617,21 @@
       <c r="P38" s="58">
         <v>3.0</v>
       </c>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="138"/>
-      <c r="T38" s="137"/>
-      <c r="U38" s="165"/>
+      <c r="Q38" s="139" t="s">
+        <v>2311</v>
+      </c>
+      <c r="R38" s="117" t="s">
+        <v>2312</v>
+      </c>
+      <c r="S38" s="138" t="s">
+        <v>2313</v>
+      </c>
+      <c r="T38" s="137" t="s">
+        <v>2314</v>
+      </c>
+      <c r="U38" s="190" t="s">
+        <v>2315</v>
+      </c>
       <c r="V38" s="104"/>
       <c r="W38" s="78" t="s">
         <v>382</v>
@@ -30424,19 +30647,19 @@
         <v>4.0</v>
       </c>
       <c r="E39" s="139" t="s">
-        <v>2296</v>
+        <v>2316</v>
       </c>
       <c r="F39" s="117" t="s">
-        <v>2297</v>
+        <v>2317</v>
       </c>
       <c r="G39" s="138" t="s">
-        <v>2298</v>
+        <v>2318</v>
       </c>
       <c r="H39" s="137" t="s">
-        <v>2299</v>
+        <v>2319</v>
       </c>
       <c r="I39" s="165" t="s">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="J39" s="104"/>
       <c r="K39" s="78" t="s">
@@ -30451,11 +30674,21 @@
       <c r="P39" s="58">
         <v>4.0</v>
       </c>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="117"/>
-      <c r="S39" s="138"/>
-      <c r="T39" s="137"/>
-      <c r="U39" s="165"/>
+      <c r="Q39" s="139" t="s">
+        <v>2321</v>
+      </c>
+      <c r="R39" s="117" t="s">
+        <v>2322</v>
+      </c>
+      <c r="S39" s="138" t="s">
+        <v>2323</v>
+      </c>
+      <c r="T39" s="137" t="s">
+        <v>2324</v>
+      </c>
+      <c r="U39" s="165" t="s">
+        <v>2325</v>
+      </c>
       <c r="V39" s="104"/>
       <c r="W39" s="78" t="s">
         <v>394</v>
@@ -30476,16 +30709,16 @@
         <v>216</v>
       </c>
       <c r="F40" s="117" t="s">
-        <v>2301</v>
+        <v>2326</v>
       </c>
       <c r="G40" s="138" t="s">
-        <v>2302</v>
+        <v>2327</v>
       </c>
       <c r="H40" s="137" t="s">
-        <v>2303</v>
+        <v>2328</v>
       </c>
       <c r="I40" s="165" t="s">
-        <v>2304</v>
+        <v>2329</v>
       </c>
       <c r="J40" s="104"/>
       <c r="K40" s="78" t="s">
@@ -30500,11 +30733,21 @@
       <c r="P40" s="58">
         <v>5.0</v>
       </c>
-      <c r="Q40" s="139"/>
-      <c r="R40" s="117"/>
-      <c r="S40" s="138"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="165"/>
+      <c r="Q40" s="139" t="s">
+        <v>2330</v>
+      </c>
+      <c r="R40" s="117" t="s">
+        <v>2331</v>
+      </c>
+      <c r="S40" s="138" t="s">
+        <v>2332</v>
+      </c>
+      <c r="T40" s="137" t="s">
+        <v>2333</v>
+      </c>
+      <c r="U40" s="165" t="s">
+        <v>2334</v>
+      </c>
       <c r="V40" s="104"/>
       <c r="W40" s="78" t="s">
         <v>406</v>
@@ -30520,19 +30763,19 @@
         <v>6.0</v>
       </c>
       <c r="E41" s="139" t="s">
-        <v>2305</v>
+        <v>2335</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>2306</v>
+        <v>2336</v>
       </c>
       <c r="G41" s="138" t="s">
-        <v>2307</v>
+        <v>2337</v>
       </c>
       <c r="H41" s="137" t="s">
-        <v>2308</v>
+        <v>2338</v>
       </c>
       <c r="I41" s="165" t="s">
-        <v>2309</v>
+        <v>2339</v>
       </c>
       <c r="J41" s="104"/>
       <c r="K41" s="78" t="s">
@@ -30549,11 +30792,21 @@
       <c r="P41" s="58">
         <v>6.0</v>
       </c>
-      <c r="Q41" s="139"/>
-      <c r="R41" s="117"/>
-      <c r="S41" s="138"/>
-      <c r="T41" s="137"/>
-      <c r="U41" s="165"/>
+      <c r="Q41" s="139" t="s">
+        <v>2340</v>
+      </c>
+      <c r="R41" s="117" t="s">
+        <v>2341</v>
+      </c>
+      <c r="S41" s="138" t="s">
+        <v>2342</v>
+      </c>
+      <c r="T41" s="137" t="s">
+        <v>2343</v>
+      </c>
+      <c r="U41" s="165" t="s">
+        <v>2344</v>
+      </c>
       <c r="V41" s="104"/>
       <c r="W41" s="78" t="s">
         <v>347</v>
@@ -30569,19 +30822,19 @@
         <v>7.0</v>
       </c>
       <c r="E42" s="139" t="s">
-        <v>2310</v>
+        <v>2345</v>
       </c>
       <c r="F42" s="117" t="s">
-        <v>2311</v>
+        <v>2346</v>
       </c>
       <c r="G42" s="138" t="s">
-        <v>2312</v>
+        <v>2347</v>
       </c>
       <c r="H42" s="137" t="s">
-        <v>2313</v>
+        <v>2348</v>
       </c>
       <c r="I42" s="165" t="s">
-        <v>2314</v>
+        <v>2349</v>
       </c>
       <c r="J42" s="104"/>
       <c r="K42" s="78" t="s">
@@ -30596,11 +30849,21 @@
       <c r="P42" s="58">
         <v>7.0</v>
       </c>
-      <c r="Q42" s="139"/>
-      <c r="R42" s="117"/>
-      <c r="S42" s="138"/>
-      <c r="T42" s="137"/>
-      <c r="U42" s="165"/>
+      <c r="Q42" s="139" t="s">
+        <v>2350</v>
+      </c>
+      <c r="R42" s="117" t="s">
+        <v>2351</v>
+      </c>
+      <c r="S42" s="138" t="s">
+        <v>2352</v>
+      </c>
+      <c r="T42" s="137" t="s">
+        <v>2353</v>
+      </c>
+      <c r="U42" s="165" t="s">
+        <v>2354</v>
+      </c>
       <c r="V42" s="104"/>
       <c r="W42" s="78" t="s">
         <v>358</v>
@@ -30616,19 +30879,19 @@
         <v>8.0</v>
       </c>
       <c r="E43" s="139" t="s">
-        <v>2315</v>
+        <v>2355</v>
       </c>
       <c r="F43" s="117" t="s">
-        <v>2316</v>
+        <v>2356</v>
       </c>
       <c r="G43" s="138" t="s">
-        <v>2317</v>
+        <v>2357</v>
       </c>
       <c r="H43" s="137" t="s">
-        <v>2318</v>
+        <v>2358</v>
       </c>
       <c r="I43" s="165" t="s">
-        <v>2319</v>
+        <v>2359</v>
       </c>
       <c r="J43" s="104"/>
       <c r="K43" s="78" t="s">
@@ -30643,11 +30906,21 @@
       <c r="P43" s="58">
         <v>8.0</v>
       </c>
-      <c r="Q43" s="139"/>
-      <c r="R43" s="117"/>
-      <c r="S43" s="138"/>
-      <c r="T43" s="137"/>
-      <c r="U43" s="165"/>
+      <c r="Q43" s="139" t="s">
+        <v>2360</v>
+      </c>
+      <c r="R43" s="117" t="s">
+        <v>2361</v>
+      </c>
+      <c r="S43" s="138" t="s">
+        <v>2362</v>
+      </c>
+      <c r="T43" s="137" t="s">
+        <v>2363</v>
+      </c>
+      <c r="U43" s="165" t="s">
+        <v>2364</v>
+      </c>
       <c r="V43" s="104"/>
       <c r="W43" s="78" t="s">
         <v>370</v>
@@ -30663,19 +30936,19 @@
         <v>9.0</v>
       </c>
       <c r="E44" s="139" t="s">
-        <v>2320</v>
+        <v>2365</v>
       </c>
       <c r="F44" s="117" t="s">
-        <v>2321</v>
+        <v>2366</v>
       </c>
       <c r="G44" s="138" t="s">
-        <v>2322</v>
+        <v>2367</v>
       </c>
       <c r="H44" s="137" t="s">
-        <v>2323</v>
+        <v>2368</v>
       </c>
       <c r="I44" s="165" t="s">
-        <v>2324</v>
+        <v>2369</v>
       </c>
       <c r="J44" s="104"/>
       <c r="K44" s="78" t="s">
@@ -30690,11 +30963,21 @@
       <c r="P44" s="58">
         <v>9.0</v>
       </c>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="117"/>
-      <c r="S44" s="138"/>
-      <c r="T44" s="137"/>
-      <c r="U44" s="165"/>
+      <c r="Q44" s="139" t="s">
+        <v>2370</v>
+      </c>
+      <c r="R44" s="117" t="s">
+        <v>2371</v>
+      </c>
+      <c r="S44" s="138" t="s">
+        <v>2372</v>
+      </c>
+      <c r="T44" s="137" t="s">
+        <v>2373</v>
+      </c>
+      <c r="U44" s="165" t="s">
+        <v>2374</v>
+      </c>
       <c r="V44" s="104"/>
       <c r="W44" s="78" t="s">
         <v>382</v>
@@ -30710,19 +30993,19 @@
         <v>10.0</v>
       </c>
       <c r="E45" s="173" t="s">
-        <v>2325</v>
+        <v>2375</v>
       </c>
       <c r="F45" s="174" t="s">
-        <v>2326</v>
+        <v>2376</v>
       </c>
       <c r="G45" s="175" t="s">
-        <v>2327</v>
+        <v>2377</v>
       </c>
       <c r="H45" s="122" t="s">
-        <v>2328</v>
+        <v>2378</v>
       </c>
       <c r="I45" s="125" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="J45" s="104"/>
       <c r="K45" s="78" t="s">
@@ -30737,11 +31020,21 @@
       <c r="P45" s="58">
         <v>10.0</v>
       </c>
-      <c r="Q45" s="173"/>
-      <c r="R45" s="174"/>
-      <c r="S45" s="175"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="125"/>
+      <c r="Q45" s="173" t="s">
+        <v>2380</v>
+      </c>
+      <c r="R45" s="174" t="s">
+        <v>2381</v>
+      </c>
+      <c r="S45" s="175" t="s">
+        <v>2382</v>
+      </c>
+      <c r="T45" s="122" t="s">
+        <v>2383</v>
+      </c>
+      <c r="U45" s="125" t="s">
+        <v>2384</v>
+      </c>
       <c r="V45" s="104"/>
       <c r="W45" s="78" t="s">
         <v>394</v>
@@ -30759,19 +31052,19 @@
         <v>38</v>
       </c>
       <c r="E46" s="181" t="s">
-        <v>2330</v>
+        <v>2385</v>
       </c>
       <c r="F46" s="182" t="s">
-        <v>2331</v>
+        <v>2386</v>
       </c>
       <c r="G46" s="183" t="s">
-        <v>2332</v>
+        <v>2387</v>
       </c>
       <c r="H46" s="184" t="s">
-        <v>2333</v>
+        <v>2388</v>
       </c>
       <c r="I46" s="185" t="s">
-        <v>2334</v>
+        <v>2389</v>
       </c>
       <c r="J46" s="104"/>
       <c r="K46" s="85" t="s">
@@ -30788,11 +31081,21 @@
       <c r="P46" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q46" s="181"/>
-      <c r="R46" s="182"/>
-      <c r="S46" s="183"/>
-      <c r="T46" s="184"/>
-      <c r="U46" s="185"/>
+      <c r="Q46" s="181" t="s">
+        <v>2390</v>
+      </c>
+      <c r="R46" s="182" t="s">
+        <v>2391</v>
+      </c>
+      <c r="S46" s="183" t="s">
+        <v>2392</v>
+      </c>
+      <c r="T46" s="184" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U46" s="185" t="s">
+        <v>2394</v>
+      </c>
       <c r="V46" s="104"/>
       <c r="W46" s="85" t="s">
         <v>406</v>
@@ -31988,1124 +32291,1124 @@
       <c r="C1" s="187"/>
     </row>
     <row r="2">
-      <c r="A2" s="190"/>
-      <c r="B2" s="191" t="s">
+      <c r="A2" s="191"/>
+      <c r="B2" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="192">
+      <c r="C2" s="193">
         <v>3.0</v>
       </c>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
     </row>
     <row r="3">
-      <c r="A3" s="190"/>
-      <c r="B3" s="194" t="s">
+      <c r="A3" s="191"/>
+      <c r="B3" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="195">
+      <c r="C3" s="196">
         <v>2.0</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
+      <c r="S3" s="194"/>
+      <c r="T3" s="194"/>
+      <c r="U3" s="194"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
     </row>
     <row r="4">
-      <c r="A4" s="190"/>
-      <c r="B4" s="194" t="s">
+      <c r="A4" s="191"/>
+      <c r="B4" s="195" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="195">
+      <c r="C4" s="196">
         <v>3.0</v>
       </c>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="193"/>
-      <c r="O4" s="193"/>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="193"/>
-      <c r="T4" s="193"/>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="194"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="194"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
     </row>
     <row r="5">
-      <c r="A5" s="190"/>
-      <c r="B5" s="194" t="s">
+      <c r="A5" s="191"/>
+      <c r="B5" s="195" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="195">
+      <c r="C5" s="196">
         <v>3.0</v>
       </c>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="193"/>
-      <c r="M5" s="193"/>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="193"/>
-      <c r="S5" s="193"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="193"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="193"/>
-      <c r="Z5" s="193"/>
-      <c r="AA5" s="193"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="194"/>
+      <c r="T5" s="194"/>
+      <c r="U5" s="194"/>
+      <c r="V5" s="194"/>
+      <c r="W5" s="194"/>
+      <c r="X5" s="194"/>
+      <c r="Y5" s="194"/>
+      <c r="Z5" s="194"/>
+      <c r="AA5" s="194"/>
     </row>
     <row r="6">
-      <c r="A6" s="190"/>
-      <c r="B6" s="194" t="s">
+      <c r="A6" s="191"/>
+      <c r="B6" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="195">
+      <c r="C6" s="196">
         <v>3.0</v>
       </c>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
     </row>
     <row r="7">
-      <c r="A7" s="190"/>
-      <c r="B7" s="194" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="195" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="195">
+      <c r="C7" s="196">
         <v>5.0</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="193"/>
-      <c r="S7" s="193"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="193"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="193"/>
-      <c r="Z7" s="193"/>
-      <c r="AA7" s="193"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="194"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="194"/>
+      <c r="Y7" s="194"/>
+      <c r="Z7" s="194"/>
+      <c r="AA7" s="194"/>
     </row>
     <row r="8">
-      <c r="A8" s="190"/>
-      <c r="B8" s="194" t="s">
+      <c r="A8" s="191"/>
+      <c r="B8" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="195">
+      <c r="C8" s="196">
         <v>3.0</v>
       </c>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="193"/>
-      <c r="S8" s="193"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="193"/>
-      <c r="W8" s="193"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="193"/>
-      <c r="Z8" s="193"/>
-      <c r="AA8" s="193"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+      <c r="V8" s="194"/>
+      <c r="W8" s="194"/>
+      <c r="X8" s="194"/>
+      <c r="Y8" s="194"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
     </row>
     <row r="9">
-      <c r="A9" s="190"/>
-      <c r="B9" s="194" t="s">
+      <c r="A9" s="191"/>
+      <c r="B9" s="195" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="195">
+      <c r="C9" s="196">
         <v>4.0</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
     </row>
     <row r="10">
-      <c r="A10" s="190"/>
-      <c r="B10" s="194" t="s">
+      <c r="A10" s="191"/>
+      <c r="B10" s="195" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="195">
+      <c r="C10" s="196">
         <v>3.0</v>
       </c>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
     </row>
     <row r="11">
-      <c r="A11" s="190"/>
-      <c r="B11" s="194" t="s">
+      <c r="A11" s="191"/>
+      <c r="B11" s="195" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="195">
+      <c r="C11" s="196">
         <v>5.0</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="193"/>
-      <c r="S11" s="193"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
     </row>
     <row r="12">
-      <c r="A12" s="190"/>
-      <c r="B12" s="194" t="s">
+      <c r="A12" s="191"/>
+      <c r="B12" s="195" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="195">
+      <c r="C12" s="196">
         <v>5.0</v>
       </c>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="193"/>
-      <c r="S12" s="193"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="193"/>
-      <c r="V12" s="193"/>
-      <c r="W12" s="193"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
     </row>
     <row r="13">
-      <c r="A13" s="190"/>
-      <c r="B13" s="194" t="s">
+      <c r="A13" s="191"/>
+      <c r="B13" s="195" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="195">
+      <c r="C13" s="196">
         <v>7.0</v>
       </c>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="190"/>
-      <c r="R13" s="193"/>
-      <c r="S13" s="193"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="193"/>
-      <c r="Y13" s="193"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
     </row>
     <row r="14">
-      <c r="A14" s="190"/>
-      <c r="B14" s="194" t="s">
+      <c r="A14" s="191"/>
+      <c r="B14" s="195" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="195">
+      <c r="C14" s="196">
         <v>5.0</v>
       </c>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="193"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="193"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="193"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="193"/>
-      <c r="X14" s="193"/>
-      <c r="Y14" s="193"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="193"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
     </row>
     <row r="15">
-      <c r="A15" s="190"/>
-      <c r="B15" s="194" t="s">
+      <c r="A15" s="191"/>
+      <c r="B15" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="195">
+      <c r="C15" s="196">
         <v>5.0</v>
       </c>
-      <c r="D15" s="193"/>
-      <c r="H15" s="196" t="s">
-        <v>2335</v>
-      </c>
-      <c r="I15" s="197"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="193"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="193"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="193"/>
-      <c r="V15" s="193"/>
-      <c r="W15" s="193"/>
-      <c r="X15" s="193"/>
-      <c r="Y15" s="193"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
+      <c r="D15" s="194"/>
+      <c r="H15" s="197" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I15" s="198"/>
+      <c r="J15" s="198"/>
+      <c r="K15" s="199"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
     </row>
     <row r="16">
-      <c r="A16" s="190"/>
-      <c r="B16" s="194" t="s">
+      <c r="A16" s="191"/>
+      <c r="B16" s="195" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="195">
+      <c r="C16" s="196">
         <v>5.0</v>
       </c>
-      <c r="D16" s="193"/>
-      <c r="H16" s="199" t="s">
-        <v>2336</v>
-      </c>
-      <c r="I16" s="197"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
-      <c r="S16" s="193"/>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="Z16" s="193"/>
-      <c r="AA16" s="193"/>
+      <c r="D16" s="194"/>
+      <c r="H16" s="200" t="s">
+        <v>2396</v>
+      </c>
+      <c r="I16" s="198"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="199"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
     </row>
     <row r="17">
-      <c r="A17" s="190"/>
-      <c r="B17" s="194" t="s">
+      <c r="A17" s="191"/>
+      <c r="B17" s="195" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="195">
+      <c r="C17" s="196">
         <v>5.0</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="H17" s="200" t="s">
-        <v>2337</v>
-      </c>
-      <c r="I17" s="197"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="193"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="193"/>
-      <c r="X17" s="193"/>
-      <c r="Y17" s="193"/>
-      <c r="Z17" s="193"/>
-      <c r="AA17" s="193"/>
+      <c r="D17" s="194"/>
+      <c r="H17" s="201" t="s">
+        <v>2397</v>
+      </c>
+      <c r="I17" s="198"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="199"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
     </row>
     <row r="18">
-      <c r="A18" s="190"/>
-      <c r="B18" s="194" t="s">
+      <c r="A18" s="191"/>
+      <c r="B18" s="195" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="195">
+      <c r="C18" s="196">
         <v>4.0</v>
       </c>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
-      <c r="Y18" s="193"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
     </row>
     <row r="19">
-      <c r="A19" s="190"/>
-      <c r="B19" s="194" t="s">
+      <c r="A19" s="191"/>
+      <c r="B19" s="195" t="s">
         <v>234</v>
       </c>
-      <c r="C19" s="195">
+      <c r="C19" s="196">
         <v>4.0</v>
       </c>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="193"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="193"/>
-      <c r="Q19" s="193"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="193"/>
-      <c r="Y19" s="193"/>
-      <c r="Z19" s="193"/>
-      <c r="AA19" s="193"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
     </row>
     <row r="20">
-      <c r="A20" s="190"/>
-      <c r="B20" s="194" t="s">
+      <c r="A20" s="191"/>
+      <c r="B20" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="195">
+      <c r="C20" s="196">
         <v>5.0</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="Q20" s="193"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="193"/>
-      <c r="T20" s="193"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="193"/>
-      <c r="W20" s="193"/>
-      <c r="X20" s="193"/>
-      <c r="Y20" s="193"/>
-      <c r="Z20" s="193"/>
-      <c r="AA20" s="193"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
     </row>
     <row r="21">
-      <c r="A21" s="190"/>
-      <c r="B21" s="194" t="s">
+      <c r="A21" s="191"/>
+      <c r="B21" s="195" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="195">
+      <c r="C21" s="196">
         <v>3.0</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="Q21" s="193"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
-      <c r="Y21" s="193"/>
-      <c r="Z21" s="193"/>
-      <c r="AA21" s="193"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
     </row>
     <row r="22">
-      <c r="A22" s="190"/>
-      <c r="B22" s="194" t="s">
+      <c r="A22" s="191"/>
+      <c r="B22" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="195">
+      <c r="C22" s="196">
         <v>5.0</v>
       </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="193"/>
-      <c r="T22" s="193"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="193"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="193"/>
-      <c r="Y22" s="193"/>
-      <c r="Z22" s="193"/>
-      <c r="AA22" s="193"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
     </row>
     <row r="23">
-      <c r="A23" s="190"/>
-      <c r="B23" s="194" t="s">
+      <c r="A23" s="191"/>
+      <c r="B23" s="195" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="195">
+      <c r="C23" s="196">
         <v>2.0</v>
       </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
-      <c r="Z23" s="193"/>
-      <c r="AA23" s="193"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
     </row>
     <row r="24">
-      <c r="A24" s="190"/>
-      <c r="B24" s="194" t="s">
+      <c r="A24" s="191"/>
+      <c r="B24" s="195" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="195">
+      <c r="C24" s="196">
         <v>7.0</v>
       </c>
-      <c r="D24" s="193"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
-      <c r="L24" s="193"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="193"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="Q24" s="193"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="193"/>
-      <c r="W24" s="193"/>
-      <c r="X24" s="193"/>
-      <c r="Y24" s="193"/>
-      <c r="Z24" s="193"/>
-      <c r="AA24" s="193"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
     </row>
     <row r="25">
-      <c r="A25" s="190"/>
-      <c r="B25" s="194" t="s">
+      <c r="A25" s="191"/>
+      <c r="B25" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="195">
+      <c r="C25" s="196">
         <v>1.0</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
-      <c r="L25" s="193"/>
-      <c r="M25" s="193"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="Q25" s="193"/>
-      <c r="R25" s="193"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="193"/>
-      <c r="U25" s="193"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="193"/>
-      <c r="Y25" s="193"/>
-      <c r="Z25" s="193"/>
-      <c r="AA25" s="193"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
     </row>
     <row r="26">
-      <c r="A26" s="190"/>
-      <c r="B26" s="194" t="s">
+      <c r="A26" s="191"/>
+      <c r="B26" s="195" t="s">
         <v>277</v>
       </c>
-      <c r="C26" s="195">
+      <c r="C26" s="196">
         <v>6.0</v>
       </c>
-      <c r="D26" s="193"/>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="Q26" s="193"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="193"/>
-      <c r="AA26" s="193"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
     </row>
     <row r="27">
-      <c r="A27" s="190"/>
-      <c r="B27" s="194" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C27" s="195">
+      <c r="A27" s="191"/>
+      <c r="B27" s="195" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C27" s="196">
         <v>6.0</v>
       </c>
-      <c r="D27" s="193"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="193"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="193"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
     </row>
     <row r="28">
-      <c r="A28" s="193"/>
-      <c r="B28" s="201"/>
-      <c r="C28" s="202">
+      <c r="A28" s="194"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="203">
         <f>SUM(C2:C27)</f>
         <v>109</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="Q28" s="193"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
     </row>
     <row r="29" ht="11.25" customHeight="1"/>
     <row r="30">
-      <c r="B30" s="203" t="s">
-        <v>2339</v>
-      </c>
-      <c r="C30" s="204" t="s">
-        <v>2340</v>
-      </c>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="206" t="s">
-        <v>2341</v>
+      <c r="B30" s="204" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C30" s="205" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="207" t="s">
+        <v>2401</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="207" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C31" s="208" t="s">
-        <v>2343</v>
-      </c>
-      <c r="D31" s="209"/>
-      <c r="E31" s="209"/>
-      <c r="F31" s="210" t="s">
-        <v>2341</v>
+      <c r="B31" s="208" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C31" s="209" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="211" t="s">
+        <v>2401</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="211"/>
-      <c r="C37" s="212"/>
-      <c r="D37" s="212"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="212"/>
-      <c r="K37" s="212"/>
-      <c r="L37" s="212"/>
-      <c r="M37" s="212"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="212"/>
-      <c r="Q37" s="212"/>
-      <c r="R37" s="212"/>
-      <c r="S37" s="212"/>
-      <c r="T37" s="212"/>
-      <c r="U37" s="213"/>
+      <c r="B37" s="212"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="213"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="213"/>
+      <c r="R37" s="213"/>
+      <c r="S37" s="213"/>
+      <c r="T37" s="213"/>
+      <c r="U37" s="214"/>
     </row>
     <row r="38">
-      <c r="B38" s="214"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="215" t="s">
-        <v>2344</v>
-      </c>
-      <c r="U38" s="216"/>
+      <c r="D38" s="216" t="s">
+        <v>2404</v>
+      </c>
+      <c r="U38" s="217"/>
     </row>
     <row r="39">
-      <c r="B39" s="217"/>
-      <c r="C39" s="215">
+      <c r="B39" s="218"/>
+      <c r="C39" s="216">
         <v>1.0</v>
       </c>
-      <c r="D39" s="215" t="s">
-        <v>2345</v>
-      </c>
-      <c r="S39" s="218" t="s">
-        <v>2346</v>
-      </c>
-      <c r="T39" s="219">
+      <c r="D39" s="216" t="s">
+        <v>2405</v>
+      </c>
+      <c r="S39" s="219" t="s">
+        <v>2406</v>
+      </c>
+      <c r="T39" s="220">
         <v>33.0</v>
       </c>
-      <c r="U39" s="216"/>
+      <c r="U39" s="217"/>
     </row>
     <row r="40">
-      <c r="B40" s="217"/>
-      <c r="C40" s="215">
+      <c r="B40" s="218"/>
+      <c r="C40" s="216">
         <v>2.0</v>
       </c>
-      <c r="D40" s="215" t="s">
-        <v>2347</v>
-      </c>
-      <c r="S40" s="218" t="s">
-        <v>2348</v>
-      </c>
-      <c r="T40" s="219">
+      <c r="D40" s="216" t="s">
+        <v>2407</v>
+      </c>
+      <c r="S40" s="219" t="s">
+        <v>2408</v>
+      </c>
+      <c r="T40" s="220">
         <v>65.0</v>
       </c>
-      <c r="U40" s="216"/>
+      <c r="U40" s="217"/>
     </row>
     <row r="41">
-      <c r="B41" s="217"/>
-      <c r="C41" s="215">
+      <c r="B41" s="218"/>
+      <c r="C41" s="216">
         <v>3.0</v>
       </c>
-      <c r="D41" s="215" t="s">
-        <v>2349</v>
-      </c>
-      <c r="S41" s="218" t="s">
-        <v>2350</v>
-      </c>
-      <c r="T41" s="219">
+      <c r="D41" s="216" t="s">
+        <v>2409</v>
+      </c>
+      <c r="S41" s="219" t="s">
+        <v>2410</v>
+      </c>
+      <c r="T41" s="220">
         <v>43.0</v>
       </c>
-      <c r="U41" s="216"/>
+      <c r="U41" s="217"/>
     </row>
     <row r="42">
-      <c r="B42" s="217"/>
-      <c r="C42" s="215">
+      <c r="B42" s="218"/>
+      <c r="C42" s="216">
         <v>4.0</v>
       </c>
-      <c r="D42" s="215" t="s">
-        <v>2351</v>
-      </c>
-      <c r="S42" s="218" t="s">
-        <v>2352</v>
-      </c>
-      <c r="T42" s="219">
+      <c r="D42" s="216" t="s">
+        <v>2411</v>
+      </c>
+      <c r="S42" s="219" t="s">
+        <v>2412</v>
+      </c>
+      <c r="T42" s="220">
         <v>41.0</v>
       </c>
-      <c r="U42" s="216"/>
+      <c r="U42" s="217"/>
     </row>
     <row r="43">
-      <c r="B43" s="217"/>
-      <c r="C43" s="215">
+      <c r="B43" s="218"/>
+      <c r="C43" s="216">
         <v>5.0</v>
       </c>
-      <c r="D43" s="215" t="s">
-        <v>2353</v>
-      </c>
-      <c r="S43" s="218" t="s">
-        <v>2354</v>
-      </c>
-      <c r="T43" s="219">
+      <c r="D43" s="216" t="s">
+        <v>2413</v>
+      </c>
+      <c r="S43" s="219" t="s">
+        <v>2414</v>
+      </c>
+      <c r="T43" s="220">
         <v>50.0</v>
       </c>
-      <c r="U43" s="216"/>
+      <c r="U43" s="217"/>
     </row>
     <row r="44">
-      <c r="B44" s="217"/>
-      <c r="C44" s="215">
+      <c r="B44" s="218"/>
+      <c r="C44" s="216">
         <v>6.0</v>
       </c>
-      <c r="D44" s="215" t="s">
-        <v>2355</v>
-      </c>
-      <c r="S44" s="218" t="s">
-        <v>2356</v>
-      </c>
-      <c r="T44" s="219">
+      <c r="D44" s="216" t="s">
+        <v>2415</v>
+      </c>
+      <c r="S44" s="219" t="s">
+        <v>2416</v>
+      </c>
+      <c r="T44" s="220">
         <v>68.0</v>
       </c>
-      <c r="U44" s="216"/>
+      <c r="U44" s="217"/>
     </row>
     <row r="45">
-      <c r="B45" s="217"/>
-      <c r="C45" s="215">
+      <c r="B45" s="218"/>
+      <c r="C45" s="216">
         <v>7.0</v>
       </c>
-      <c r="D45" s="215" t="s">
-        <v>2357</v>
-      </c>
-      <c r="S45" s="218" t="s">
-        <v>2358</v>
-      </c>
-      <c r="T45" s="219">
+      <c r="D45" s="216" t="s">
+        <v>2417</v>
+      </c>
+      <c r="S45" s="219" t="s">
+        <v>2418</v>
+      </c>
+      <c r="T45" s="220">
         <v>30.0</v>
       </c>
-      <c r="U45" s="216"/>
+      <c r="U45" s="217"/>
     </row>
     <row r="46">
-      <c r="B46" s="220"/>
-      <c r="C46" s="215">
+      <c r="B46" s="221"/>
+      <c r="C46" s="216">
         <v>8.0</v>
       </c>
-      <c r="D46" s="215" t="s">
-        <v>2359</v>
-      </c>
-      <c r="S46" s="218" t="s">
-        <v>2360</v>
-      </c>
-      <c r="T46" s="219">
+      <c r="D46" s="216" t="s">
+        <v>2419</v>
+      </c>
+      <c r="S46" s="219" t="s">
+        <v>2420</v>
+      </c>
+      <c r="T46" s="220">
         <v>36.0</v>
       </c>
-      <c r="U46" s="216"/>
+      <c r="U46" s="217"/>
     </row>
     <row r="47">
-      <c r="B47" s="220"/>
-      <c r="C47" s="215">
+      <c r="B47" s="221"/>
+      <c r="C47" s="216">
         <v>9.0</v>
       </c>
-      <c r="D47" s="215" t="s">
-        <v>2361</v>
-      </c>
-      <c r="S47" s="218" t="s">
-        <v>2362</v>
-      </c>
-      <c r="T47" s="219">
+      <c r="D47" s="216" t="s">
+        <v>2421</v>
+      </c>
+      <c r="S47" s="219" t="s">
+        <v>2422</v>
+      </c>
+      <c r="T47" s="220">
         <v>42.0</v>
       </c>
-      <c r="U47" s="216"/>
+      <c r="U47" s="217"/>
     </row>
     <row r="48">
-      <c r="B48" s="220"/>
-      <c r="C48" s="215">
+      <c r="B48" s="221"/>
+      <c r="C48" s="216">
         <v>10.0</v>
       </c>
-      <c r="D48" s="215" t="s">
-        <v>2363</v>
-      </c>
-      <c r="S48" s="218" t="s">
-        <v>2364</v>
-      </c>
-      <c r="T48" s="219">
+      <c r="D48" s="216" t="s">
+        <v>2423</v>
+      </c>
+      <c r="S48" s="219" t="s">
+        <v>2424</v>
+      </c>
+      <c r="T48" s="220">
         <v>46.0</v>
       </c>
-      <c r="U48" s="216"/>
+      <c r="U48" s="217"/>
     </row>
     <row r="49">
-      <c r="B49" s="214"/>
+      <c r="B49" s="215"/>
       <c r="C49" s="1"/>
       <c r="S49" s="93">
         <f>SUM('2. Exchange (Statement)'!V26:V35)</f>
         <v>0</v>
       </c>
-      <c r="T49" s="221"/>
-      <c r="U49" s="216"/>
+      <c r="T49" s="222"/>
+      <c r="U49" s="217"/>
     </row>
     <row r="50">
-      <c r="B50" s="222"/>
-      <c r="C50" s="223"/>
-      <c r="D50" s="224"/>
-      <c r="E50" s="224"/>
-      <c r="F50" s="224"/>
-      <c r="G50" s="224"/>
-      <c r="H50" s="224"/>
-      <c r="I50" s="224"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="224"/>
-      <c r="L50" s="224"/>
-      <c r="M50" s="224"/>
-      <c r="N50" s="224"/>
-      <c r="O50" s="224"/>
-      <c r="P50" s="224"/>
-      <c r="Q50" s="224"/>
-      <c r="R50" s="224"/>
-      <c r="S50" s="225"/>
-      <c r="T50" s="224"/>
-      <c r="U50" s="226"/>
+      <c r="B50" s="223"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="225"/>
+      <c r="E50" s="225"/>
+      <c r="F50" s="225"/>
+      <c r="G50" s="225"/>
+      <c r="H50" s="225"/>
+      <c r="I50" s="225"/>
+      <c r="J50" s="225"/>
+      <c r="K50" s="225"/>
+      <c r="L50" s="225"/>
+      <c r="M50" s="225"/>
+      <c r="N50" s="225"/>
+      <c r="O50" s="225"/>
+      <c r="P50" s="225"/>
+      <c r="Q50" s="225"/>
+      <c r="R50" s="225"/>
+      <c r="S50" s="226"/>
+      <c r="T50" s="225"/>
+      <c r="U50" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="16">
